--- a/tests/regression_data_linux/performance_analysis_evaluate_cascade_critical_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_evaluate_cascade_critical_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015427044369106</v>
+        <v>2.015427053108554</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300000000039805</v>
+        <v>2.299999998180943</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740246972685487</v>
+        <v>2.740246998513667</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55823422900666</v>
+        <v>92.55823393634446</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08749255551665</v>
+        <v>79.08749282599952</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455380149124371</v>
+        <v>0.145538009288393</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23303057042908</v>
+        <v>-78.23303083528791</v>
       </c>
       <c r="I2" t="n">
-        <v>136184.1917279432</v>
+        <v>136184.1934773026</v>
       </c>
       <c r="J2" t="n">
-        <v>83.7026378168059</v>
+        <v>83.70263889201144</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.35331309850491</v>
+        <v>-24.35330946392232</v>
       </c>
       <c r="M2" t="n">
-        <v>135.243939727314</v>
+        <v>135.2439371141896</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372086.6508938064</v>
+        <v>372086.6507238377</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7159934109210414</v>
+        <v>0.715993414295337</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069523125695123</v>
+        <v>2.069523120295694</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000132181</v>
+        <v>2.3999999999675</v>
       </c>
       <c r="D3" t="n">
-        <v>2.742649154164121</v>
+        <v>2.742649151306475</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53013760146101</v>
+        <v>92.5301376775939</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20472766649644</v>
+        <v>78.20472747679614</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548188547677937</v>
+        <v>0.1548188575133468</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35954652126424</v>
+        <v>-77.35954633430948</v>
       </c>
       <c r="I3" t="n">
-        <v>140842.5901958042</v>
+        <v>140842.5897074159</v>
       </c>
       <c r="J3" t="n">
-        <v>86.56582064892696</v>
+        <v>86.56582034874981</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84261176202596</v>
+        <v>-26.84261291860311</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5910585909942</v>
+        <v>142.591059855347</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370431.6760408048</v>
+        <v>370431.6761653706</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7036644356132771</v>
+        <v>0.7036644352466929</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.63109339006068</v>
+        <v>80.6310941545425</v>
       </c>
       <c r="D2" t="n">
-        <v>80.63109339006068</v>
+        <v>80.6310941545425</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.63109339006068</v>
+        <v>80.6310941545425</v>
       </c>
       <c r="H2" t="n">
-        <v>80.63109339006068</v>
+        <v>80.6310941545425</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3588221985355</v>
+        <v>292.35882213687</v>
       </c>
       <c r="L2" t="n">
-        <v>132782.5733331663</v>
+        <v>132782.5732352698</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583021137931157</v>
+        <v>1.583021137098623</v>
       </c>
       <c r="N2" t="n">
-        <v>334654.527611208</v>
+        <v>334654.5275670946</v>
       </c>
       <c r="O2" t="n">
-        <v>418533.7444779513</v>
+        <v>418533.7444161096</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687435.5157753609</v>
+        <v>-687435.515603927</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131970956628</v>
+        <v>717.7131970928717</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647996704683</v>
+        <v>1006.647996701444</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576963581329</v>
+        <v>1.402576963582271</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980090681794</v>
+        <v>0.9994980090677487</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9119533082041</v>
+        <v>342.9119532720064</v>
       </c>
       <c r="W2" t="n">
-        <v>186145.2516032635</v>
+        <v>186145.2514660681</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372148853580898e-06</v>
+        <v>5.372148857540355e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132716.6041056041</v>
+        <v>132716.6040076982</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534852226962416e-06</v>
+        <v>7.53485223252092e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00343338535878592</v>
+        <v>0.003433385359508934</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817172138454483e-05</v>
+        <v>1.81717213815276e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582478594668529</v>
+        <v>0.0258247859420378</v>
       </c>
       <c r="AD2" t="n">
-        <v>132782.5733331663</v>
+        <v>132782.5732352698</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583021137931157</v>
+        <v>1.583021137098623</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583021137931157</v>
+        <v>1.583021137098623</v>
       </c>
       <c r="AG2" t="n">
-        <v>334654.527611208</v>
+        <v>334654.5275670946</v>
       </c>
       <c r="AH2" t="n">
-        <v>418533.7444779513</v>
+        <v>418533.7444161096</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131970956628</v>
+        <v>717.7131970928717</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647996704683</v>
+        <v>1006.647996701444</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9119533082041</v>
+        <v>342.9119532720064</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980090681794</v>
+        <v>0.9994980090677487</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817172138454483e-05</v>
+        <v>1.81717213815276e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582478594668529</v>
+        <v>0.0258247859420378</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351364325803793</v>
+        <v>0.2351364348345824</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351364325803793</v>
+        <v>0.2351364348345824</v>
       </c>
       <c r="DH2" t="n">
-        <v>183751.5170334283</v>
+        <v>183751.5187094909</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.740246972881129</v>
+        <v>2.740246997420902</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>268.7000913283357</v>
+        <v>268.7001021083639</v>
       </c>
       <c r="DU2" t="n">
-        <v>110.612538014641</v>
+        <v>110.6125422393895</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.8767149277684</v>
+        <v>244.876724848207</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.69097057569348</v>
+        <v>65.69097062551589</v>
       </c>
       <c r="DX2" t="n">
-        <v>268.7000913283357</v>
+        <v>268.7001021083639</v>
       </c>
       <c r="DY2" t="n">
-        <v>110.612538014641</v>
+        <v>110.6125422393895</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.8767149277684</v>
+        <v>244.876724848207</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.69097057569348</v>
+        <v>65.69097062551589</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.5768834978508</v>
+        <v>259.5768806059184</v>
       </c>
       <c r="EC2" t="n">
-        <v>85923.81210124964</v>
+        <v>85923.80863234612</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.153944457840155</v>
+        <v>1.153944424122819</v>
       </c>
       <c r="EE2" t="n">
-        <v>311223.6015625003</v>
+        <v>311223.5994964495</v>
       </c>
       <c r="EF2" t="n">
-        <v>385684.5615484547</v>
+        <v>385684.5586519667</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.609747961325</v>
+        <v>3788.609748383702</v>
       </c>
       <c r="EH2" t="n">
-        <v>-597750.9496169239</v>
+        <v>-597750.9416666479</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.537457416723</v>
+        <v>716.5374573386115</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.204882862624</v>
+        <v>1005.204882762093</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.40286438965328</v>
+        <v>1.402864389665908</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993241596328484</v>
+        <v>0.9993241596211525</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.091788704305</v>
+        <v>323.0917869021749</v>
       </c>
       <c r="EN2" t="n">
-        <v>120458.3047812193</v>
+        <v>120458.2999177475</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.301627702765998e-06</v>
+        <v>8.301628037942008e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>85865.96514221217</v>
+        <v>85865.96167462395</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.164605788036958e-05</v>
+        <v>1.16460583506809e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003865875000371537</v>
+        <v>0.003865875043336507</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.652911403728728e-05</v>
+        <v>1.652911388886286e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02330775439322327</v>
+        <v>0.02330775416699373</v>
       </c>
       <c r="EU2" t="n">
-        <v>85923.81210124964</v>
+        <v>85923.80863234612</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.153944457840155</v>
+        <v>1.153944424122819</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.153944457840155</v>
+        <v>1.153944424122819</v>
       </c>
       <c r="EX2" t="n">
-        <v>311223.6015625003</v>
+        <v>311223.5994964495</v>
       </c>
       <c r="EY2" t="n">
-        <v>385684.5615484547</v>
+        <v>385684.5586519667</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.609747961325</v>
+        <v>3788.609748383702</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.537457416723</v>
+        <v>716.5374573386115</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.204882862624</v>
+        <v>1005.204882762093</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.091788704305</v>
+        <v>323.0917869021749</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993241596328484</v>
+        <v>0.9993241596211525</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.652911403728728e-05</v>
+        <v>1.652911388886286e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02330775439322327</v>
+        <v>0.02330775416699373</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5937144865499</v>
+        <v>295.5937144858958</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135289.0393709168</v>
+        <v>135289.0391748376</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595200321158579</v>
+        <v>1.595200318849067</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3683168759</v>
+        <v>336974.3683168067</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.609747973746</v>
+        <v>3788.609748388902</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698104.7970549215</v>
+        <v>-698104.7971753619</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561751868949</v>
+        <v>717.8561751863756</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777073039323</v>
+        <v>1006.777073036098</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477415169142</v>
+        <v>1.402477415165664</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302899913593</v>
+        <v>0.9995302899920242</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027749235654</v>
+        <v>344.8027749229832</v>
       </c>
       <c r="FU2" t="n">
-        <v>189651.6969569369</v>
+        <v>189651.6966817209</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.272823897943104e-06</v>
+        <v>5.272823905594842e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135226.2039343174</v>
+        <v>135226.2037384172</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395016431029326e-06</v>
+        <v>7.395016441742378e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395619870064015</v>
+        <v>0.003395619870053395</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925574428723e-05</v>
+        <v>1.832925574422722e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729613579751</v>
+        <v>0.02606729613568586</v>
       </c>
       <c r="GB2" t="n">
-        <v>135289.0393709168</v>
+        <v>135289.0391748376</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595200321158579</v>
+        <v>1.595200318849067</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595200321158579</v>
+        <v>1.595200318849067</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3683168759</v>
+        <v>336974.3683168067</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.609747973746</v>
+        <v>3788.609748388902</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561751868949</v>
+        <v>717.8561751863756</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777073039323</v>
+        <v>1006.777073036098</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8027749235654</v>
+        <v>344.8027749229832</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302899913593</v>
+        <v>0.9995302899920242</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925574428723e-05</v>
+        <v>1.832925574422722e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729613579751</v>
+        <v>0.02606729613568586</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5937144865499</v>
+        <v>295.5937144858958</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135289.0393709168</v>
+        <v>135289.0391748376</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595200321158579</v>
+        <v>1.595200318849067</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3683168759</v>
+        <v>336974.3683168067</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.609747973746</v>
+        <v>3788.609748388902</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698104.7970549215</v>
+        <v>-698104.7971753619</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561751868949</v>
+        <v>717.8561751863756</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777073039323</v>
+        <v>1006.777073036098</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477415169142</v>
+        <v>1.402477415165664</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302899913593</v>
+        <v>0.9995302899920242</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8027749235654</v>
+        <v>344.8027749229832</v>
       </c>
       <c r="HB2" t="n">
-        <v>189651.6969569369</v>
+        <v>189651.6966817209</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.272823897943104e-06</v>
+        <v>5.272823905594842e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135226.2039343174</v>
+        <v>135226.2037384172</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395016431029326e-06</v>
+        <v>7.395016441742378e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395619870064015</v>
+        <v>0.003395619870053395</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925574428723e-05</v>
+        <v>1.832925574422722e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729613579751</v>
+        <v>0.02606729613568586</v>
       </c>
       <c r="HI2" t="n">
-        <v>135289.0393709168</v>
+        <v>135289.0391748376</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595200321158579</v>
+        <v>1.595200318849067</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595200321158579</v>
+        <v>1.595200318849067</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3683168759</v>
+        <v>336974.3683168067</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.431088389</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.609747973746</v>
+        <v>3788.609748388902</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561751868949</v>
+        <v>717.8561751863756</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777073039323</v>
+        <v>1006.777073036098</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8027749235654</v>
+        <v>344.8027749229832</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302899913593</v>
+        <v>0.9995302899920242</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925574428723e-05</v>
+        <v>1.832925574422722e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729613579751</v>
+        <v>0.02606729613568586</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8316524923332272</v>
+        <v>0.8316525303372084</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8316524923332272</v>
+        <v>0.8316525303372084</v>
       </c>
       <c r="HY2" t="n">
-        <v>490728.0505259988</v>
+        <v>490728.0602814541</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.740246972852389</v>
+        <v>2.740246997445874</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01593440617390381</v>
+        <v>0.01593440623004316</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.788006350541079e-07</v>
+        <v>-1.788006399914732e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01379068410853612</v>
+        <v>0.01379068411034718</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02519148973134108</v>
+        <v>0.02519148970516929</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05491640121314596</v>
+        <v>0.05491640124491964</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.326987131289314e-12</v>
+        <v>2.498181661536591e-10</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>268.7000913283357</v>
+        <v>268.7001021083639</v>
       </c>
       <c r="IL2" t="n">
-        <v>110.612538014641</v>
+        <v>110.6125422393895</v>
       </c>
       <c r="IM2" t="n">
-        <v>244.8767149277684</v>
+        <v>244.876724848207</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.69097057569348</v>
+        <v>65.69097062551589</v>
       </c>
       <c r="IO2" t="n">
-        <v>136.2610650332669</v>
+        <v>136.2610742561093</v>
       </c>
       <c r="IP2" t="n">
-        <v>110.612538014641</v>
+        <v>110.6125422393895</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.57351492776837</v>
+        <v>79.573524848207</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.73084942335498</v>
+        <v>35.73085177216276</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.5768834981571</v>
+        <v>259.5768806059122</v>
       </c>
       <c r="IT2" t="n">
-        <v>85923.81210143388</v>
+        <v>85923.80863242112</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.153944457841265</v>
+        <v>1.153944424123854</v>
       </c>
       <c r="IV2" t="n">
-        <v>311223.6015627194</v>
+        <v>311223.5994964448</v>
       </c>
       <c r="IW2" t="n">
-        <v>385684.5615487618</v>
+        <v>385684.5586519602</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.609747961894</v>
+        <v>3788.609748383426</v>
       </c>
       <c r="IY2" t="n">
-        <v>-597750.9496179251</v>
+        <v>-597750.9416665593</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5374574167306</v>
+        <v>716.5374573386115</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.204882862631</v>
+        <v>1005.204882762094</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402864389653274</v>
+        <v>1.40286438966591</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.999324159632851</v>
+        <v>0.9993241596211518</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.0917887044959</v>
+        <v>323.0917869021711</v>
       </c>
       <c r="JE2" t="n">
-        <v>120458.3047814774</v>
+        <v>120458.2999178528</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.301627702748211e-06</v>
+        <v>8.301628037934754e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>85865.96514239651</v>
+        <v>85865.96167469883</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.164605788034458e-05</v>
+        <v>1.164605835067074e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003865875000366957</v>
+        <v>0.003865875043336612</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652911403730297e-05</v>
+        <v>1.652911388886255e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02330775439324716</v>
+        <v>0.02330775416699327</v>
       </c>
       <c r="JL2" t="n">
-        <v>85923.81210143388</v>
+        <v>85923.80863242112</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.153944457841265</v>
+        <v>1.153944424123854</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.153944457841265</v>
+        <v>1.153944424123854</v>
       </c>
       <c r="JO2" t="n">
-        <v>311223.6015627194</v>
+        <v>311223.5994964448</v>
       </c>
       <c r="JP2" t="n">
-        <v>385684.5615487618</v>
+        <v>385684.5586519602</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.609747961894</v>
+        <v>3788.609748383426</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5374574167306</v>
+        <v>716.5374573386115</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.204882862631</v>
+        <v>1005.204882762094</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.0917887044959</v>
+        <v>323.0917869021711</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.999324159632851</v>
+        <v>0.9993241596211518</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.652911403730297e-05</v>
+        <v>1.652911388886255e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02330775439324716</v>
+        <v>0.02330775416699327</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5937144866572</v>
+        <v>295.5937144858961</v>
       </c>
       <c r="KA2" t="n">
-        <v>135289.0393742137</v>
+        <v>135289.0391749675</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.595200321196889</v>
+        <v>1.595200318850597</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3683169467</v>
+        <v>336974.3683168067</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.609747967095</v>
+        <v>3788.609748388627</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698104.7970532614</v>
+        <v>-698104.7971752813</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561751869078</v>
+        <v>717.8561751863758</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.77707303938</v>
+        <v>1006.777073036101</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477415169197</v>
+        <v>1.402477415165667</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995302899913493</v>
+        <v>0.9995302899920238</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027749236313</v>
+        <v>344.8027749229835</v>
       </c>
       <c r="KL2" t="n">
-        <v>189651.6969615641</v>
+        <v>189651.6966819032</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272823897814455e-06</v>
+        <v>5.272823905589773e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135226.2039376115</v>
+        <v>135226.203738547</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.395016430849185e-06</v>
+        <v>7.395016441735282e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395619870063073</v>
+        <v>0.003395619870053404</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925574429291e-05</v>
+        <v>1.832925574422725e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606729613580657</v>
+        <v>0.02606729613568592</v>
       </c>
       <c r="KS2" t="n">
-        <v>135289.0393742137</v>
+        <v>135289.0391749675</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595200321196889</v>
+        <v>1.595200318850597</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595200321196889</v>
+        <v>1.595200318850597</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3683169467</v>
+        <v>336974.3683168067</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.609747967095</v>
+        <v>3788.609748388627</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561751869078</v>
+        <v>717.8561751863758</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.77707303938</v>
+        <v>1006.777073036101</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027749236313</v>
+        <v>344.8027749229835</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995302899913493</v>
+        <v>0.9995302899920238</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925574429291e-05</v>
+        <v>1.832925574422725e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606729613580657</v>
+        <v>0.02606729613568592</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.8434090252164</v>
+        <v>268.8434073878639</v>
       </c>
       <c r="LH2" t="n">
-        <v>97121.33661338828</v>
+        <v>97121.33440517327</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.259312813855566</v>
+        <v>1.259312792901945</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317845.6130754047</v>
+        <v>317845.6119054953</v>
       </c>
       <c r="LK2" t="n">
-        <v>394968.1004707622</v>
+        <v>394968.0988305809</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.609747961894</v>
+        <v>3788.609748383426</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623574.6596374795</v>
+        <v>-623574.655187697</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8078693236658</v>
+        <v>716.8078692715117</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.539795507535</v>
+        <v>1005.539795441468</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802394533277</v>
+        <v>1.402802394543175</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993679200747343</v>
+        <v>0.9993679200673675</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8154052812538</v>
+        <v>328.815404278669</v>
       </c>
       <c r="LS2" t="n">
-        <v>136156.3608743851</v>
+        <v>136156.357778585</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.344497117711441e-06</v>
+        <v>7.344497284703972e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97060.25695777721</v>
+        <v>97060.25475022411</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.030287814336836e-05</v>
+        <v>1.030287837769858e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003732878032085846</v>
+        <v>0.003732878054758207</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.700134511498247e-05</v>
+        <v>1.700134503209543e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02402857197802395</v>
+        <v>0.02402857185129388</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97121.33661338828</v>
+        <v>97121.33440517327</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.259312813855566</v>
+        <v>1.259312792901945</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.259312813855566</v>
+        <v>1.259312792901945</v>
       </c>
       <c r="MC2" t="n">
-        <v>317845.6130754047</v>
+        <v>317845.6119054953</v>
       </c>
       <c r="MD2" t="n">
-        <v>394968.1004707622</v>
+        <v>394968.0988305809</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.609747961894</v>
+        <v>3788.609748383426</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8078693236658</v>
+        <v>716.8078692715117</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.539795507535</v>
+        <v>1005.539795441468</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.8154052812538</v>
+        <v>328.815404278669</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993679200747343</v>
+        <v>0.9993679200673675</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.700134511498247e-05</v>
+        <v>1.700134503209543e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02402857197802395</v>
+        <v>0.02402857185129388</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.831652492332736</v>
+        <v>0.8316525303372182</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4217410339632404</v>
+        <v>0.4217410648614469</v>
       </c>
       <c r="MP2" t="n">
-        <v>247902.8503271995</v>
+        <v>247902.8620892886</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.740246972855024</v>
+        <v>2.740246997448333</v>
       </c>
       <c r="MR2" t="n">
-        <v>381305.5265055417</v>
+        <v>381305.5248654609</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.243939727314</v>
+        <v>135.2439371141896</v>
       </c>
       <c r="MU2" t="n">
-        <v>123.2099302529479</v>
+        <v>123.209931410101</v>
       </c>
       <c r="MV2" t="n">
-        <v>-55.76949273598476</v>
+        <v>-55.7694838425557</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.35331309850491</v>
+        <v>-24.35330946392232</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.0885662895016</v>
+        <v>253.0885590844287</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.2099302529479</v>
+        <v>123.209931410101</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.0726927359848</v>
+        <v>-221.0726838425557</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.86786615576329</v>
+        <v>-60.86786494678825</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8579341256892</v>
+        <v>236.8579343086763</v>
       </c>
       <c r="NC2" t="n">
-        <v>59999.99999796225</v>
+        <v>60000.0000464543</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8831275049548396</v>
+        <v>0.8831275049846665</v>
       </c>
       <c r="NE2" t="n">
-        <v>295000.8299732342</v>
+        <v>295000.8301042534</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.1892773309</v>
+        <v>362941.189460965</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.930415169723</v>
+        <v>3799.930415713191</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537102.4786811421</v>
+        <v>-537102.479321571</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325598135094</v>
+        <v>716.0325598160987</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930662934</v>
+        <v>1004.48793066405</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852310130356</v>
+        <v>1.402852310126842</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992718935281754</v>
+        <v>0.9992718935300401</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6114441488318</v>
+        <v>308.611444268232</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96741724621</v>
+        <v>84109.96748517042</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188919732948269e-05</v>
+        <v>1.18891973198814e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.39513145224</v>
+        <v>59956.39518002108</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878793926046e-05</v>
+        <v>1.667878792574948e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235349902478043</v>
+        <v>0.004235349899187254</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534216842943461e-05</v>
+        <v>1.534216843914422e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150523149861734</v>
+        <v>0.02150523151328444</v>
       </c>
       <c r="NU2" t="n">
-        <v>59999.99999796225</v>
+        <v>60000.0000464543</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8831275049548396</v>
+        <v>0.8831275049846665</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8831275049548396</v>
+        <v>0.8831275049846665</v>
       </c>
       <c r="NX2" t="n">
-        <v>295000.8299732342</v>
+        <v>295000.8301042534</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.1892773309</v>
+        <v>362941.189460965</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.930415169723</v>
+        <v>3799.930415713191</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325598135094</v>
+        <v>716.0325598160987</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487930662934</v>
+        <v>1004.48793066405</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6114441488318</v>
+        <v>308.611444268232</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992718935281754</v>
+        <v>0.9992718935300401</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534216842943461e-05</v>
+        <v>1.534216843914422e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150523149861734</v>
+        <v>0.02150523151328444</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>245.9907771758972</v>
+        <v>245.9907770057364</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68471.8409347831</v>
+        <v>68471.84063787032</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9703790590487126</v>
+        <v>0.9703790555113673</v>
       </c>
       <c r="OL2" t="n">
-        <v>301524.6985347893</v>
+        <v>301524.6984135756</v>
       </c>
       <c r="OM2" t="n">
-        <v>372086.6508938064</v>
+        <v>372086.6507238377</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.930415168863</v>
+        <v>3799.930415721759</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562661.1851479118</v>
+        <v>-562661.184807289</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2042311269231</v>
+        <v>716.2042311228658</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.719244222265</v>
+        <v>1004.719244214269</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839023502239</v>
+        <v>1.402839023499021</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992991868078465</v>
+        <v>0.9992991868086296</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5121001494269</v>
+        <v>314.5121000405309</v>
       </c>
       <c r="OU2" t="n">
-        <v>95987.82101653564</v>
+        <v>95987.82060015973</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041798833862196e-05</v>
+        <v>1.04179883838131e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68423.97410424078</v>
+        <v>68423.97380758823</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.461476058781014e-05</v>
+        <v>1.461476065117252e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004078414448913563</v>
+        <v>0.004078414451703741</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582417316180766e-05</v>
+        <v>1.582417315287083e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02223537840616212</v>
+        <v>0.0222353783925839</v>
       </c>
       <c r="PB2" t="n">
-        <v>68471.8409347831</v>
+        <v>68471.84063787032</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9703790590487126</v>
+        <v>0.9703790555113673</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9703790590487126</v>
+        <v>0.9703790555113673</v>
       </c>
       <c r="PE2" t="n">
-        <v>301524.6985347893</v>
+        <v>301524.6984135756</v>
       </c>
       <c r="PF2" t="n">
-        <v>372086.6508938064</v>
+        <v>372086.6507238377</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.930415168863</v>
+        <v>3799.930415721759</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2042311269231</v>
+        <v>716.2042311228658</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.719244222265</v>
+        <v>1004.719244214269</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5121001494269</v>
+        <v>314.5121000405309</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992991868078465</v>
+        <v>0.9992991868086296</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582417316180766e-05</v>
+        <v>1.582417315287083e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02223537840616212</v>
+        <v>0.0222353783925839</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.8328438228806</v>
+        <v>268.832842185615</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93363.31958624166</v>
+        <v>93363.31742303915</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.210603166772082</v>
+        <v>1.210603146103898</v>
       </c>
       <c r="PS2" t="n">
-        <v>317846.7760361205</v>
+        <v>317846.7748662428</v>
       </c>
       <c r="PT2" t="n">
-        <v>394968.1004707682</v>
+        <v>394968.0988306747</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.930415167175</v>
+        <v>3799.93041571319</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626577.9993676827</v>
+        <v>-626577.9949330676</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7955087152901</v>
+        <v>716.7955086630916</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.462374087716</v>
+        <v>1005.462374021439</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402718574352959</v>
+        <v>1.402718574362645</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993921250408384</v>
+        <v>0.9993921250340239</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.8070446082972</v>
+        <v>328.8070436059098</v>
       </c>
       <c r="QB2" t="n">
-        <v>130883.238642869</v>
+        <v>130883.235610337</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.640397734415964e-06</v>
+        <v>7.640397911442077e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93306.84075616686</v>
+        <v>93306.83859362639</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.071732781750954e-05</v>
+        <v>1.071732806590136e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003732514171433014</v>
+        <v>0.003732514194099682</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.70002411849847e-05</v>
+        <v>1.700024110210577e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.0240264273653045</v>
+        <v>0.02402642723858689</v>
       </c>
       <c r="QI2" t="n">
-        <v>93363.31958624166</v>
+        <v>93363.31742303915</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.210603166772082</v>
+        <v>1.210603146103898</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.210603166772082</v>
+        <v>1.210603146103898</v>
       </c>
       <c r="QL2" t="n">
-        <v>317846.7760361205</v>
+        <v>317846.7748662428</v>
       </c>
       <c r="QM2" t="n">
-        <v>394968.1004707682</v>
+        <v>394968.0988306747</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.930415167175</v>
+        <v>3799.93041571319</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7955087152901</v>
+        <v>716.7955086630916</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.462374087716</v>
+        <v>1005.462374021439</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.8070446082972</v>
+        <v>328.8070436059098</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993921250408384</v>
+        <v>0.9993921250340239</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.70002411849847e-05</v>
+        <v>1.700024110210577e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.0240264273653045</v>
+        <v>0.02402642723858689</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4382337152153402</v>
+        <v>0.4382337065784289</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8200880786761957</v>
+        <v>0.8200880550121623</v>
       </c>
       <c r="QY2" t="n">
-        <v>379650.1727451973</v>
+        <v>379650.1617096477</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.740246972685487</v>
+        <v>2.740246998513667</v>
       </c>
       <c r="RA2" t="n">
-        <v>381305.5265055417</v>
+        <v>381305.5248654609</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.0244728811948472</v>
+        <v>0.02447288358521864</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.001918869391238133</v>
+        <v>0.001918870700622003</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01189012435757713</v>
+        <v>0.01189012415684602</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03198084267303872</v>
+        <v>0.03198084413337689</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04237646445359938</v>
+        <v>0.04237646542171162</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1126391820703006</v>
+        <v>0.1126391879977752</v>
       </c>
       <c r="RH2" t="n">
-        <v>-7.275087476887876e-11</v>
+        <v>1.176006236836002e-10</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.70591977708753</v>
+        <v>80.70591967825371</v>
       </c>
       <c r="D3" t="n">
-        <v>80.70591977708753</v>
+        <v>80.70591967825371</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.70591977708753</v>
+        <v>80.70591967825371</v>
       </c>
       <c r="H3" t="n">
-        <v>80.70591977708753</v>
+        <v>80.70591967825371</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3528032589817</v>
+        <v>292.3528032670356</v>
       </c>
       <c r="L3" t="n">
-        <v>132773.0182522919</v>
+        <v>132773.0182650768</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582939878534444</v>
+        <v>1.58293987864317</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.2218700948</v>
+        <v>334650.2218758563</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.7083449565</v>
+        <v>418527.7083530332</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.782757503</v>
+        <v>-687418.7827798933</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129246605734</v>
+        <v>717.7129246609378</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647680588423</v>
+        <v>1006.647680588846</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577055533025</v>
+        <v>1.402577055532902</v>
       </c>
       <c r="U3" t="n">
-        <v>0.999497967029807</v>
+        <v>0.9994979670298633</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9084201631404</v>
+        <v>342.908420167868</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.8607977816</v>
+        <v>186131.8608156987</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372535339806362e-06</v>
+        <v>5.372535339289199e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132707.0481179698</v>
+        <v>132707.0481307558</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535394797652731e-06</v>
+        <v>7.535394796926709e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00343345593089946</v>
+        <v>0.003433455930805027</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817142688175744e-05</v>
+        <v>1.817142688215152e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582433232076754</v>
+        <v>0.02582433232137454</v>
       </c>
       <c r="AD3" t="n">
-        <v>132773.0182522919</v>
+        <v>132773.0182650768</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582939878534444</v>
+        <v>1.58293987864317</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582939878534444</v>
+        <v>1.58293987864317</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.2218700948</v>
+        <v>334650.2218758563</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.7083449565</v>
+        <v>418527.7083530332</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718239</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129246605734</v>
+        <v>717.7129246609378</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647680588423</v>
+        <v>1006.647680588846</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9084201631404</v>
+        <v>342.908420167868</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.999497967029807</v>
+        <v>0.9994979670298633</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817142688175744e-05</v>
+        <v>1.817142688215152e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582433232076754</v>
+        <v>0.02582433232137454</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353570662939431</v>
+        <v>0.2353570660024761</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353570662939431</v>
+        <v>0.2353570660024761</v>
       </c>
       <c r="DH3" t="n">
-        <v>183915.579708477</v>
+        <v>183915.579491895</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.742649154491033</v>
+        <v>2.742649151320721</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>270.1969767993783</v>
+        <v>270.1969726879757</v>
       </c>
       <c r="DU3" t="n">
-        <v>111.1593521067665</v>
+        <v>111.1593507346122</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.2722166845616</v>
+        <v>246.2722127930923</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.707115518319</v>
+        <v>65.70711544403744</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.1969767993783</v>
+        <v>270.1969726879757</v>
       </c>
       <c r="DY3" t="n">
-        <v>111.1593521067665</v>
+        <v>111.1593507346122</v>
       </c>
       <c r="DZ3" t="n">
-        <v>246.2722166845616</v>
+        <v>246.2722127930923</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.707115518319</v>
+        <v>65.70711544403744</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.1741865726493</v>
+        <v>259.1741876819738</v>
       </c>
       <c r="EC3" t="n">
-        <v>85443.19037065475</v>
+        <v>85443.19168655084</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.149274590315092</v>
+        <v>1.149274603090514</v>
       </c>
       <c r="EE3" t="n">
-        <v>310935.9051806087</v>
+        <v>310935.9059731462</v>
       </c>
       <c r="EF3" t="n">
-        <v>385281.2279526271</v>
+        <v>385281.2290637163</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.663779984856</v>
+        <v>3788.663779854092</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596642.6254222067</v>
+        <v>-596642.6284800846</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5266250906675</v>
+        <v>716.5266251203799</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.190956626428</v>
+        <v>1005.190956664558</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402866162160036</v>
+        <v>1.402866162155079</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993225259885048</v>
+        <v>0.9993225259930304</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.8407480092706</v>
+        <v>322.840748701089</v>
       </c>
       <c r="EN3" t="n">
-        <v>119784.4642038661</v>
+        <v>119784.4660487736</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.348328029401702e-06</v>
+        <v>8.34832790082165e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>85385.52531585068</v>
+        <v>85385.52663125109</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.171158690305983e-05</v>
+        <v>1.171158672263784e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003871867306201556</v>
+        <v>0.003871867289667875</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.650844010059754e-05</v>
+        <v>1.650844015756534e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02327624531981396</v>
+        <v>0.02327624540663189</v>
       </c>
       <c r="EU3" t="n">
-        <v>85443.19037065475</v>
+        <v>85443.19168655084</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.149274590315092</v>
+        <v>1.149274603090514</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.149274590315092</v>
+        <v>1.149274603090514</v>
       </c>
       <c r="EX3" t="n">
-        <v>310935.9051806087</v>
+        <v>310935.9059731462</v>
       </c>
       <c r="EY3" t="n">
-        <v>385281.2279526271</v>
+        <v>385281.2290637163</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.663779984856</v>
+        <v>3788.663779854092</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5266250906675</v>
+        <v>716.5266251203799</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.190956626428</v>
+        <v>1005.190956664558</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.8407480092706</v>
+        <v>322.840748701089</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993225259885048</v>
+        <v>0.9993225259930304</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.650844010059754e-05</v>
+        <v>1.650844015756534e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02327624531981396</v>
+        <v>0.02327624540663189</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5936554162228</v>
+        <v>295.5936554163814</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135263.563986599</v>
+        <v>135263.5640550823</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594900119888781</v>
+        <v>1.594900120695788</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.3779073087</v>
+        <v>336974.3779072829</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.663779997306</v>
+        <v>3788.663779852043</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698120.544783858</v>
+        <v>-698120.5447415202</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8561088310646</v>
+        <v>717.8561088312431</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.776654760779</v>
+        <v>1006.776654761903</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476962131288</v>
+        <v>1.402476962132506</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995303767055295</v>
+        <v>0.9995303767052963</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8027143548072</v>
+        <v>344.8027143549699</v>
       </c>
       <c r="FU3" t="n">
-        <v>189615.9397254403</v>
+        <v>189615.9398215633</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.273818231990296e-06</v>
+        <v>5.27381822931681e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135200.751844999</v>
+        <v>135200.7519134196</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.39640857283435e-06</v>
+        <v>7.39640856909127e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395618189357632</v>
+        <v>0.003395618189362152</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832924920423216e-05</v>
+        <v>1.832924920424973e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606728356288826</v>
+        <v>0.02606728356292205</v>
       </c>
       <c r="GB3" t="n">
-        <v>135263.563986599</v>
+        <v>135263.5640550823</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594900119888781</v>
+        <v>1.594900120695788</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594900119888781</v>
+        <v>1.594900120695788</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.3779073087</v>
+        <v>336974.3779072829</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.663779997306</v>
+        <v>3788.663779852043</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8561088310646</v>
+        <v>717.8561088312431</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.776654760779</v>
+        <v>1006.776654761903</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8027143548072</v>
+        <v>344.8027143549699</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995303767055295</v>
+        <v>0.9995303767052963</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832924920423216e-05</v>
+        <v>1.832924920424973e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606728356288826</v>
+        <v>0.02606728356292205</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5936554162228</v>
+        <v>295.5936554163814</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135263.563986599</v>
+        <v>135263.5640550823</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594900119888781</v>
+        <v>1.594900120695788</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.3779073087</v>
+        <v>336974.3779072829</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.663779997306</v>
+        <v>3788.663779852043</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698120.544783858</v>
+        <v>-698120.5447415202</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561088310646</v>
+        <v>717.8561088312431</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776654760779</v>
+        <v>1006.776654761903</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476962131288</v>
+        <v>1.402476962132506</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303767055295</v>
+        <v>0.9995303767052963</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8027143548072</v>
+        <v>344.8027143549699</v>
       </c>
       <c r="HB3" t="n">
-        <v>189615.9397254403</v>
+        <v>189615.9398215633</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.273818231990296e-06</v>
+        <v>5.27381822931681e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135200.751844999</v>
+        <v>135200.7519134196</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.39640857283435e-06</v>
+        <v>7.39640856909127e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395618189357632</v>
+        <v>0.003395618189362152</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832924920423216e-05</v>
+        <v>1.832924920424973e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606728356288826</v>
+        <v>0.02606728356292205</v>
       </c>
       <c r="HI3" t="n">
-        <v>135263.563986599</v>
+        <v>135263.5640550823</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594900119888781</v>
+        <v>1.594900120695788</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594900119888781</v>
+        <v>1.594900120695788</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.3779073087</v>
+        <v>336974.3779072829</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.663779997306</v>
+        <v>3788.663779852043</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8561088310646</v>
+        <v>717.8561088312431</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.776654760779</v>
+        <v>1006.776654761903</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8027143548072</v>
+        <v>344.8027143549699</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995303767055295</v>
+        <v>0.9995303767052963</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832924920423216e-05</v>
+        <v>1.832924920424973e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606728356288826</v>
+        <v>0.02606728356292205</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8369357909913512</v>
+        <v>0.836935776462794</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8369357909913512</v>
+        <v>0.836935776462794</v>
       </c>
       <c r="HY3" t="n">
-        <v>492080.3146070095</v>
+        <v>492080.3108912761</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.742649154560628</v>
+        <v>2.742649151192777</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01595100155552246</v>
+        <v>0.01595100148124403</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.793991236282568e-07</v>
+        <v>-1.793991224821953e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01379123038325241</v>
+        <v>0.01379123038079538</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.0251839910126247</v>
+        <v>0.02518399104573698</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05492604355227594</v>
+        <v>0.05492604350865391</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.656029480212595e-12</v>
+        <v>-4.501309047721946e-12</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>270.1969767993783</v>
+        <v>270.1969726879757</v>
       </c>
       <c r="IL3" t="n">
-        <v>111.1593521067665</v>
+        <v>111.1593507346122</v>
       </c>
       <c r="IM3" t="n">
-        <v>246.2722166845616</v>
+        <v>246.2722127930923</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.707115518319</v>
+        <v>65.70711544403744</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5223008230335</v>
+        <v>137.5222974227397</v>
       </c>
       <c r="IP3" t="n">
-        <v>111.1593521067665</v>
+        <v>111.1593507346122</v>
       </c>
       <c r="IQ3" t="n">
-        <v>80.96901668456164</v>
+        <v>80.9690127930923</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.06977816513449</v>
+        <v>36.06977719122524</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.1741865727491</v>
+        <v>259.1741876820672</v>
       </c>
       <c r="IT3" t="n">
-        <v>85443.19036845374</v>
+        <v>85443.19168665842</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.149274590285023</v>
+        <v>1.149274603091547</v>
       </c>
       <c r="IV3" t="n">
-        <v>310935.9051806857</v>
+        <v>310935.9059732131</v>
       </c>
       <c r="IW3" t="n">
-        <v>385281.2279527342</v>
+        <v>385281.2290638099</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.663779992658</v>
+        <v>3788.663779854092</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596642.6254244999</v>
+        <v>-596642.6284803444</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5266250906618</v>
+        <v>716.5266251203822</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.190956626379</v>
+        <v>1005.190956664562</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402866162159979</v>
+        <v>1.402866162155079</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993225259885234</v>
+        <v>0.9993225259930308</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.8407480093321</v>
+        <v>322.8407487011472</v>
       </c>
       <c r="JE3" t="n">
-        <v>119784.4642007778</v>
+        <v>119784.4660489243</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.34832802961694e-06</v>
+        <v>8.348327900811142e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>85385.52531365273</v>
+        <v>85385.52663135863</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.17115869033613e-05</v>
+        <v>1.171158672262309e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003871867306199705</v>
+        <v>0.003871867289666485</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650844010060231e-05</v>
+        <v>1.650844015757014e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02327624531982091</v>
+        <v>0.0232762454066392</v>
       </c>
       <c r="JL3" t="n">
-        <v>85443.19036845374</v>
+        <v>85443.19168665842</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.149274590285023</v>
+        <v>1.149274603091547</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.149274590285023</v>
+        <v>1.149274603091547</v>
       </c>
       <c r="JO3" t="n">
-        <v>310935.9051806857</v>
+        <v>310935.9059732131</v>
       </c>
       <c r="JP3" t="n">
-        <v>385281.2279527342</v>
+        <v>385281.2290638099</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.663779992658</v>
+        <v>3788.663779854092</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5266250906618</v>
+        <v>716.5266251203822</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.190956626379</v>
+        <v>1005.190956664562</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.8407480093321</v>
+        <v>322.8407487011472</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993225259885234</v>
+        <v>0.9993225259930308</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650844010060231e-05</v>
+        <v>1.650844015757014e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02327624531982091</v>
+        <v>0.0232762454066392</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5936554163302</v>
+        <v>295.5936554163735</v>
       </c>
       <c r="KA3" t="n">
-        <v>135263.5639899168</v>
+        <v>135263.5640516646</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.594900119927338</v>
+        <v>1.594900120655513</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3779073791</v>
+        <v>336974.3779072842</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.663779990608</v>
+        <v>3788.663779859294</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698120.5447821848</v>
+        <v>-698120.5447436335</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8561088310776</v>
+        <v>717.8561088312341</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776654760836</v>
+        <v>1006.776654761847</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476962131342</v>
+        <v>1.402476962132445</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995303767055195</v>
+        <v>0.999530376705308</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.802714354873</v>
+        <v>344.8027143549617</v>
       </c>
       <c r="KL3" t="n">
-        <v>189615.9397300967</v>
+        <v>189615.9398167662</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.273818231860787e-06</v>
+        <v>5.273818229450233e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135200.7518483139</v>
+        <v>135200.751910005</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.396408572653002e-06</v>
+        <v>7.396408569278073e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395618189356692</v>
+        <v>0.003395618189361926</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924920423785e-05</v>
+        <v>1.832924920424886e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606728356289734</v>
+        <v>0.02606728356292037</v>
       </c>
       <c r="KS3" t="n">
-        <v>135263.5639899168</v>
+        <v>135263.5640516646</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594900119927338</v>
+        <v>1.594900120655513</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594900119927338</v>
+        <v>1.594900120655513</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3779073791</v>
+        <v>336974.3779072842</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.663779990608</v>
+        <v>3788.663779859294</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8561088310776</v>
+        <v>717.8561088312341</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776654760836</v>
+        <v>1006.776654761847</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.802714354873</v>
+        <v>344.8027143549617</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995303767055195</v>
+        <v>0.999530376705308</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924920423785e-05</v>
+        <v>1.832924920424886e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606728356289734</v>
+        <v>0.02606728356292037</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.6131302022168</v>
+        <v>268.6131308443515</v>
       </c>
       <c r="LH3" t="n">
-        <v>96812.91034319201</v>
+        <v>96812.9111957103</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.256391119156081</v>
+        <v>1.256391127212467</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317681.0723277443</v>
+        <v>317681.0727865815</v>
       </c>
       <c r="LK3" t="n">
-        <v>394737.4195647586</v>
+        <v>394737.4202080308</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.663779992039</v>
+        <v>3788.663779860723</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622947.4176626659</v>
+        <v>-622947.419416953</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8005541182921</v>
+        <v>716.8005541386303</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.530554803255</v>
+        <v>1005.530554828848</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402803819034596</v>
+        <v>1.402803819030498</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993668746893687</v>
+        <v>0.9993668746923201</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.6743714714459</v>
+        <v>328.6743718648011</v>
       </c>
       <c r="LS3" t="n">
-        <v>135723.9654999183</v>
+        <v>135723.9666950913</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.367895539425587e-06</v>
+        <v>7.367895474544565e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96751.92187124424</v>
+        <v>96751.92272351557</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.033571200095418e-05</v>
+        <v>1.033571190990864e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003736069664725193</v>
+        <v>0.00373606965581679</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.698968609051257e-05</v>
+        <v>1.698968612302841e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02401074681162692</v>
+        <v>0.02401074686133683</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96812.91034319201</v>
+        <v>96812.9111957103</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.256391119156081</v>
+        <v>1.256391127212467</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.256391119156081</v>
+        <v>1.256391127212467</v>
       </c>
       <c r="MC3" t="n">
-        <v>317681.0723277443</v>
+        <v>317681.0727865815</v>
       </c>
       <c r="MD3" t="n">
-        <v>394737.4195647586</v>
+        <v>394737.4202080308</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.663779992039</v>
+        <v>3788.663779860723</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8005541182921</v>
+        <v>716.8005541386303</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.530554803255</v>
+        <v>1005.530554828848</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.6743714714459</v>
+        <v>328.6743718648011</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993668746893687</v>
+        <v>0.9993668746923201</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.698968609051257e-05</v>
+        <v>1.698968612302841e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02401074681162692</v>
+        <v>0.02401074686133683</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8369357909911915</v>
+        <v>0.8369357764626433</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4259756603557933</v>
+        <v>0.4259756489105524</v>
       </c>
       <c r="MP3" t="n">
-        <v>249496.9883481189</v>
+        <v>249496.9840984132</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.742649154488871</v>
+        <v>2.742649151195242</v>
       </c>
       <c r="MR3" t="n">
-        <v>381074.8455995383</v>
+        <v>381074.8462428105</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.5910585909942</v>
+        <v>142.591059855347</v>
       </c>
       <c r="MU3" t="n">
-        <v>127.2269072471963</v>
+        <v>127.2269070756197</v>
       </c>
       <c r="MV3" t="n">
-        <v>-64.38574424834775</v>
+        <v>-64.38574738746763</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.84261176202596</v>
+        <v>-26.84261291860311</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.571318002571</v>
+        <v>262.571320665436</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.2269072471963</v>
+        <v>127.2269070756197</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.6889442483478</v>
+        <v>-229.6889473874676</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.01751126727429</v>
+        <v>-61.01751163193128</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1851361984822</v>
+        <v>234.1851361429229</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.99999587544</v>
+        <v>57499.99999982093</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559939620998155</v>
+        <v>0.8559939623623134</v>
       </c>
       <c r="NE3" t="n">
-        <v>293092.2000387631</v>
+        <v>293092.1999989335</v>
       </c>
       <c r="NF3" t="n">
-        <v>360265.5710457544</v>
+        <v>360265.5709899349</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.777671407689</v>
+        <v>3800.777671149652</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529820.0655930054</v>
+        <v>-529820.0653772277</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876087281175</v>
+        <v>715.987608727474</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421565411092</v>
+        <v>1004.421565411335</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847693405406</v>
+        <v>1.402847693407006</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992670944454156</v>
+        <v>0.9992670944446201</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8632621915586</v>
+        <v>306.8632621550884</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.72424127221</v>
+        <v>80604.72424683084</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622071985165e-05</v>
+        <v>1.24062207189961e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.92976684777</v>
+        <v>57457.92977074464</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403812072224e-05</v>
+        <v>1.740403811954188e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283550526518798</v>
+        <v>0.004283550527545038</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.519974494688976e-05</v>
+        <v>1.519974494393179e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02128989151954525</v>
+        <v>0.02128989151508408</v>
       </c>
       <c r="NU3" t="n">
-        <v>57499.99999587544</v>
+        <v>57499.99999982093</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559939620998155</v>
+        <v>0.8559939623623134</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559939620998155</v>
+        <v>0.8559939623623134</v>
       </c>
       <c r="NX3" t="n">
-        <v>293092.2000387631</v>
+        <v>293092.1999989335</v>
       </c>
       <c r="NY3" t="n">
-        <v>360265.5710457544</v>
+        <v>360265.5709899349</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.777671407689</v>
+        <v>3800.777671149652</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9876087281175</v>
+        <v>715.987608727474</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421565411092</v>
+        <v>1004.421565411335</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8632621915586</v>
+        <v>306.8632621550884</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992670944454156</v>
+        <v>0.9992670944446201</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.519974494688976e-05</v>
+        <v>1.519974494393179e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02128989151954525</v>
+        <v>0.02128989151508408</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.3375265852193</v>
+        <v>244.337526709794</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66682.02847520694</v>
+        <v>66682.02864918177</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9514112662590154</v>
+        <v>0.9514112682563722</v>
       </c>
       <c r="OL3" t="n">
-        <v>300344.1851312183</v>
+        <v>300344.1852200632</v>
       </c>
       <c r="OM3" t="n">
-        <v>370431.6760408048</v>
+        <v>370431.6761653706</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.777671406636</v>
+        <v>3800.777671168055</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558240.9392910223</v>
+        <v>-558240.9395816427</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1698323104775</v>
+        <v>716.1698323131969</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.669713445153</v>
+        <v>1004.669713449892</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402837243512379</v>
+        <v>1.402837243513669</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992959090480569</v>
+        <v>0.9992959090478695</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4521946518618</v>
+        <v>313.4521947318546</v>
       </c>
       <c r="OU3" t="n">
-        <v>93478.32454074663</v>
+        <v>93478.32478470274</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.069766713206446e-05</v>
+        <v>1.06976671041461e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66635.18877407232</v>
+        <v>66635.18894791299</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.500708587155829e-05</v>
+        <v>1.500708583240717e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105916011338187</v>
+        <v>0.004105916009259921</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573740358694265e-05</v>
+        <v>1.573740359349575e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210374183180537</v>
+        <v>0.02210374184175027</v>
       </c>
       <c r="PB3" t="n">
-        <v>66682.02847520694</v>
+        <v>66682.02864918177</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9514112662590154</v>
+        <v>0.9514112682563722</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9514112662590154</v>
+        <v>0.9514112682563722</v>
       </c>
       <c r="PE3" t="n">
-        <v>300344.1851312183</v>
+        <v>300344.1852200632</v>
       </c>
       <c r="PF3" t="n">
-        <v>370431.6760408048</v>
+        <v>370431.6761653706</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.777671406636</v>
+        <v>3800.777671168055</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1698323104775</v>
+        <v>716.1698323131969</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.669713445153</v>
+        <v>1004.669713449892</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4521946518618</v>
+        <v>313.4521947318546</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992959090480569</v>
+        <v>0.9992959090478695</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573740358694265e-05</v>
+        <v>1.573740359349575e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210374183180537</v>
+        <v>0.02210374184175027</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.6018569765559</v>
+        <v>268.6018576189424</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92809.84430679666</v>
+        <v>92809.84515902003</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.204460587332247</v>
+        <v>1.204460595508449</v>
       </c>
       <c r="PS3" t="n">
-        <v>317682.3085190662</v>
+        <v>317682.308978054</v>
       </c>
       <c r="PT3" t="n">
-        <v>394737.4195645515</v>
+        <v>394737.4202080245</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.777671397961</v>
+        <v>3800.777671159381</v>
       </c>
       <c r="PV3" t="n">
-        <v>-626158.5209279709</v>
+        <v>-626158.522661983</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7873581942158</v>
+        <v>716.7873582146404</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.447913898765</v>
+        <v>1005.447913924832</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402714350922377</v>
+        <v>1.402714350918774</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.999392784926864</v>
+        <v>0.9993927849294673</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.6654723832764</v>
+        <v>328.6654727767346</v>
       </c>
       <c r="QB3" t="n">
-        <v>130107.0283561257</v>
+        <v>130107.0295508396</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.685979863154085e-06</v>
+        <v>7.685979792577219e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92753.75864699163</v>
+        <v>92753.75949894563</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.078123425494665e-05</v>
+        <v>1.078123415591977e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003735680747951942</v>
+        <v>0.003735680739044409</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698850875683877e-05</v>
+        <v>1.698850878936857e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02400845938128791</v>
+        <v>0.02400845943102137</v>
       </c>
       <c r="QI3" t="n">
-        <v>92809.84430679666</v>
+        <v>92809.84515902003</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.204460587332247</v>
+        <v>1.204460595508449</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.204460587332247</v>
+        <v>1.204460595508449</v>
       </c>
       <c r="QL3" t="n">
-        <v>317682.3085190662</v>
+        <v>317682.308978054</v>
       </c>
       <c r="QM3" t="n">
-        <v>394737.4195645515</v>
+        <v>394737.4202080245</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.777671397961</v>
+        <v>3800.777671159381</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7873581942158</v>
+        <v>716.7873582146404</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.447913898765</v>
+        <v>1005.447913924832</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.6654723832764</v>
+        <v>328.6654727767346</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.999392784926864</v>
+        <v>0.9993927849294673</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698850875683877e-05</v>
+        <v>1.698850878936857e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02400845938128791</v>
+        <v>0.02400845943102137</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4646729542423429</v>
+        <v>0.4646729584178169</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.855662278134362</v>
+        <v>0.8556622869137485</v>
       </c>
       <c r="QY3" t="n">
-        <v>385350.6504113383</v>
+        <v>385350.654512532</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.742649154164121</v>
+        <v>2.742649151306475</v>
       </c>
       <c r="RA3" t="n">
-        <v>381074.8455995383</v>
+        <v>381074.8462428105</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02459644875716874</v>
+        <v>0.02459644789275265</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002168222032821264</v>
+        <v>0.002168221436951302</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01188668116697619</v>
+        <v>0.01188668124020031</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03204646911321475</v>
+        <v>0.03204646856068399</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04267186693348681</v>
+        <v>0.04267186646279316</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1133696880036678</v>
+        <v>0.1133696855933814</v>
       </c>
       <c r="RH3" t="n">
-        <v>9.652065258158871e-11</v>
+        <v>-2.084152017634011e-10</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -8689,34 +8689,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593440617390381</v>
+        <v>0.01593440623004316</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788006350541079e-07</v>
+        <v>-1.788006399914732e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379068410853612</v>
+        <v>0.01379068411034718</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519148973134108</v>
+        <v>0.02519148970516929</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491640121314596</v>
+        <v>0.05491640124491964</v>
       </c>
       <c r="H2" t="n">
-        <v>1.326987131289314e-12</v>
+        <v>2.498181661536591e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758172506357</v>
+        <v>81.75758168669242</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758172506357</v>
+        <v>81.75758168669242</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758172506357</v>
+        <v>81.75758168669242</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758172506357</v>
+        <v>81.75758168669242</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8737,97 +8737,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180725974</v>
+        <v>292.2676180756258</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394376612</v>
+        <v>132637.8394424652</v>
       </c>
       <c r="T2" t="n">
-        <v>1.58179009610186</v>
+        <v>1.581790096142728</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834751614</v>
+        <v>334589.2834773277</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800039246</v>
+        <v>418442.2800069614</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347723465</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625807203</v>
+        <v>-687181.9625891394</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713704061</v>
+        <v>717.7090713705429</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.643209103398</v>
+        <v>1006.643209103557</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574211</v>
+        <v>1.402578355574165</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723756401</v>
+        <v>0.9994973723756612</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.858412122248</v>
+        <v>342.8584121240259</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165869442</v>
+        <v>185942.4165936766</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054391381e-06</v>
+        <v>5.37800905419666e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565725478</v>
+        <v>132571.8565773522</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.54307909577148e-06</v>
+        <v>7.543079095498118e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038598816</v>
+        <v>0.003434455038563287</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856047162e-05</v>
+        <v>1.816725856061982e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190128111</v>
+        <v>0.02581791190150938</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394376612</v>
+        <v>132637.8394424652</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.58179009610186</v>
+        <v>1.581790096142728</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.58179009610186</v>
+        <v>1.581790096142728</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834751614</v>
+        <v>334589.2834773277</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800039246</v>
+        <v>418442.2800069614</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347723465</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713704061</v>
+        <v>717.7090713705429</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.643209103398</v>
+        <v>1006.643209103557</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.858412122248</v>
+        <v>342.8584121240259</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723756401</v>
+        <v>0.9994973723756612</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856047162e-05</v>
+        <v>1.816725856061982e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190128111</v>
+        <v>0.02581791190150938</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8838,22 +8838,22 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.5999999999883</v>
+        <v>295.5999999999884</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BB2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="BD2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="BE2" t="n">
         <v>-696445.9368984908</v>
@@ -8871,46 +8871,46 @@
         <v>0.9995210660216013</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974367829</v>
+        <v>193456.8974367841</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087309119e-06</v>
+        <v>5.169110087309087e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617458627</v>
+        <v>137934.6617458635</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.24980934699682e-06</v>
+        <v>7.249809346996776e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695746387</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="BP2" t="n">
         <v>1.83299517401163e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BU2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="BW2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="BX2" t="n">
         <v>717.8632360362506</v>
@@ -8919,7 +8919,7 @@
         <v>1006.821582550243</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="CA2" t="n">
         <v>0.9995210660216013</v>
@@ -8928,7 +8928,7 @@
         <v>1.83299517401163e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -8939,22 +8939,22 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.5999999999883</v>
+        <v>295.5999999999884</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="CI2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="CK2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="CL2" t="n">
         <v>-696445.9368984908</v>
@@ -8972,46 +8972,46 @@
         <v>0.9995210660216013</v>
       </c>
       <c r="CQ2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974367829</v>
+        <v>193456.8974367841</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087309119e-06</v>
+        <v>5.169110087309087e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617458627</v>
+        <v>137934.6617458635</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.24980934699682e-06</v>
+        <v>7.249809346996776e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695746387</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="CW2" t="n">
         <v>1.83299517401163e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="DB2" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="DD2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="DE2" t="n">
         <v>717.8632360362506</v>
@@ -9020,7 +9020,7 @@
         <v>1006.821582550243</v>
       </c>
       <c r="DG2" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="DH2" t="n">
         <v>0.9995210660216013</v>
@@ -9029,7 +9029,7 @@
         <v>1.83299517401163e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -9040,16 +9040,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2384587305850103</v>
+        <v>0.2384587304718583</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2384587305850103</v>
+        <v>0.2384587304718583</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.5323213009</v>
+        <v>186219.5322371948</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.776369934738659</v>
+        <v>2.77636993350736</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885895</v>
@@ -9058,121 +9058,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780704290754</v>
+        <v>309.3780795937471</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136387063726</v>
+        <v>126.4136424511096</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.372772078741</v>
+        <v>282.3727804434378</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780704290754</v>
+        <v>309.3780795937471</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136387063726</v>
+        <v>126.4136424511096</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.372772078741</v>
+        <v>282.3727804434378</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.8365069163642</v>
+        <v>247.8365040849569</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.23994395403</v>
+        <v>72726.23699695306</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.023014691873099</v>
+        <v>1.023014662115869</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.9131819207</v>
+        <v>302836.9111594204</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.0358572804</v>
+        <v>373927.0330219318</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093061095868</v>
+        <v>3790.093061278867</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.3892926697</v>
+        <v>-565396.3814420751</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2529430986045</v>
+        <v>716.2529430376535</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.83158126056</v>
+        <v>1004.831581179355</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457083675</v>
+        <v>1.402900457089683</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992812859068406</v>
+        <v>0.9992812858972886</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.6911168108565</v>
+        <v>315.6911150051865</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5457066715</v>
+        <v>101954.5415747334</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292441192883e-06</v>
+        <v>9.808292838696082e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.11254438738</v>
+        <v>72674.10959879373</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.376005794895985e-05</v>
+        <v>1.37600585066762e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004048559412850902</v>
+        <v>0.004048559459000568</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.592113127029322e-05</v>
+        <v>1.59211311223424e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02238288389225391</v>
+        <v>0.02238288366763643</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.23994395403</v>
+        <v>72726.23699695306</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.023014691873099</v>
+        <v>1.023014662115869</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.023014691873099</v>
+        <v>1.023014662115869</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.9131819207</v>
+        <v>302836.9111594204</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.0358572804</v>
+        <v>373927.0330219318</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093061095868</v>
+        <v>3790.093061278867</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2529430986045</v>
+        <v>716.2529430376535</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.83158126056</v>
+        <v>1004.831581179355</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.6911168108565</v>
+        <v>315.6911150051865</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992812859068406</v>
+        <v>0.9992812858972886</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.592113127029322e-05</v>
+        <v>1.59211311223424e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02238288389225391</v>
+        <v>0.02238288366763643</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9183,97 +9183,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968652901</v>
+        <v>295.592096865091</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.4166643454</v>
+        <v>134591.4165784999</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979528502974</v>
+        <v>1.586979527491367</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.6309324726</v>
+        <v>336974.6309325047</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.093061105516</v>
+        <v>3790.093061288515</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.1241580755</v>
+        <v>-698537.1242114143</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8543580611</v>
+        <v>717.8543580608765</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.765618722467</v>
+        <v>1006.765618721058</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402465008977178</v>
+        <v>1.402465008975652</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995326648230457</v>
+        <v>0.9995326648233379</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.8011163638684</v>
+        <v>344.8011163636643</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5204137912</v>
+        <v>188672.5202933001</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.300188908309638e-06</v>
+        <v>5.300188911694476e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2176318827</v>
+        <v>134529.2175461154</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.433329484873218e-06</v>
+        <v>7.433329489612242e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843606704</v>
+        <v>0.003395573843601041</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832907665250308e-05</v>
+        <v>1.832907665248105e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0260669518442513</v>
+        <v>0.02606695184420894</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.4166643454</v>
+        <v>134591.4165784999</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979528502974</v>
+        <v>1.586979527491367</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979528502974</v>
+        <v>1.586979527491367</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.6309324726</v>
+        <v>336974.6309325047</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.093061105516</v>
+        <v>3790.093061288515</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8543580611</v>
+        <v>717.8543580608765</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.765618722467</v>
+        <v>1006.765618721058</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8011163638684</v>
+        <v>344.8011163636643</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995326648230457</v>
+        <v>0.9995326648233379</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832907665250308e-05</v>
+        <v>1.832907665248105e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.0260669518442513</v>
+        <v>0.02606695184420894</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9284,97 +9284,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968652901</v>
+        <v>295.592096865091</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.4166643454</v>
+        <v>134591.4165784999</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979528502974</v>
+        <v>1.586979527491367</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.6309324726</v>
+        <v>336974.6309325047</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.093061105516</v>
+        <v>3790.093061288515</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.1241580755</v>
+        <v>-698537.1242114143</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8543580611</v>
+        <v>717.8543580608765</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.765618722467</v>
+        <v>1006.765618721058</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402465008977178</v>
+        <v>1.402465008975652</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995326648230457</v>
+        <v>0.9995326648233379</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.8011163638684</v>
+        <v>344.8011163636643</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5204137912</v>
+        <v>188672.5202933001</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.300188908309638e-06</v>
+        <v>5.300188911694476e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2176318827</v>
+        <v>134529.2175461154</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.433329484873218e-06</v>
+        <v>7.433329489612242e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843606704</v>
+        <v>0.003395573843601041</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832907665250308e-05</v>
+        <v>1.832907665248105e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.0260669518442513</v>
+        <v>0.02606695184420894</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.4166643454</v>
+        <v>134591.4165784999</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979528502974</v>
+        <v>1.586979527491367</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979528502974</v>
+        <v>1.586979527491367</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.6309324726</v>
+        <v>336974.6309325047</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.093061105516</v>
+        <v>3790.093061288515</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8543580611</v>
+        <v>717.8543580608765</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.765618722467</v>
+        <v>1006.765618721058</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.8011163638684</v>
+        <v>344.8011163636643</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995326648230457</v>
+        <v>0.9995326648233379</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832907665250308e-05</v>
+        <v>1.832907665248105e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.0260669518442513</v>
+        <v>0.02606695184420894</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9385,37 +9385,37 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01619337324655493</v>
+        <v>0.01619337327355775</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.972005730474183e-07</v>
+        <v>-1.972005790647813e-07</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.01379727827868033</v>
+        <v>0.01379727827867139</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.025100930073182</v>
+        <v>0.02510093007339621</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.05509138439784421</v>
+        <v>0.05509138442504628</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.578245385502723e-06</v>
+        <v>5.577017047272981e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024579546103</v>
+        <v>0.980002492590469</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024579546103</v>
+        <v>0.9800024925904688</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1609484677</v>
+        <v>520038.1660593171</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362991755981</v>
+        <v>2.776362993241621</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885895</v>
@@ -9424,166 +9424,166 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>1473.439572446689</v>
+        <v>1473.43966505077</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.006566863851460778</v>
+        <v>0.006566864389848814</v>
       </c>
       <c r="IL2" t="n">
-        <v>-7.368705266707735e-08</v>
+        <v>-7.368706048352093e-08</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.01038187940458783</v>
+        <v>0.01038188020838923</v>
       </c>
       <c r="IN2" t="n">
         <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.005683396291703387</v>
+        <v>0.005683396738382731</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.0244728811948472</v>
+        <v>0.02447288358521864</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.001918869391238133</v>
+        <v>0.001918870700622003</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.01189012435757713</v>
+        <v>0.01189012415684602</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.03198084267303872</v>
+        <v>0.03198084413337689</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.04237646445359938</v>
+        <v>0.04237646542171162</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.1126391820703006</v>
+        <v>0.1126391879977752</v>
       </c>
       <c r="IV2" t="n">
-        <v>-7.275087476887876e-11</v>
+        <v>1.176006236836002e-10</v>
       </c>
       <c r="IW2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX2" t="n">
-        <v>272.0237984330485</v>
+        <v>272.023799713948</v>
       </c>
       <c r="IY2" t="n">
-        <v>111.9807685822307</v>
+        <v>111.9807688939531</v>
       </c>
       <c r="IZ2" t="n">
-        <v>247.9057368873837</v>
+        <v>247.9057381520911</v>
       </c>
       <c r="JA2" t="n">
-        <v>65.69097057569348</v>
+        <v>65.69097062551589</v>
       </c>
       <c r="JB2" t="n">
-        <v>139.1505358685287</v>
+        <v>139.1505368701415</v>
       </c>
       <c r="JC2" t="n">
-        <v>111.9807685822307</v>
+        <v>111.9807688939531</v>
       </c>
       <c r="JD2" t="n">
-        <v>82.60253688738365</v>
+        <v>82.60253815209111</v>
       </c>
       <c r="JE2" t="n">
-        <v>36.41431527326592</v>
+        <v>36.4143156161429</v>
       </c>
       <c r="JF2" t="n">
-        <v>258.6798006013427</v>
+        <v>258.6798002528209</v>
       </c>
       <c r="JG2" t="n">
-        <v>84891.32856782325</v>
+        <v>84891.32804196764</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.144036532850877</v>
+        <v>1.144036527306133</v>
       </c>
       <c r="JI2" t="n">
-        <v>310582.6204741439</v>
+        <v>310582.6202254322</v>
       </c>
       <c r="JJ2" t="n">
-        <v>384785.957631812</v>
+        <v>384785.9572830885</v>
       </c>
       <c r="JK2" t="n">
-        <v>3788.609747961894</v>
+        <v>3788.609748390708</v>
       </c>
       <c r="JL2" t="n">
-        <v>-595250.8565272739</v>
+        <v>-595250.8556665104</v>
       </c>
       <c r="JM2" t="n">
-        <v>716.5135610094225</v>
+        <v>716.5135609997621</v>
       </c>
       <c r="JN2" t="n">
-        <v>1005.174772339852</v>
+        <v>1005.174772325372</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.402869152851433</v>
+        <v>1.402869152850139</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.9993202541131673</v>
+        <v>0.99932025411267</v>
       </c>
       <c r="JQ2" t="n">
-        <v>322.5322907702909</v>
+        <v>322.5322905527019</v>
       </c>
       <c r="JR2" t="n">
-        <v>119010.7783121733</v>
+        <v>119010.777574794</v>
       </c>
       <c r="JS2" t="n">
-        <v>8.402600286983527e-06</v>
+        <v>8.402600339045227e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>84833.84075433925</v>
+        <v>84833.84022879523</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.178774874634979e-05</v>
+        <v>1.178774881937467e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.003879255083103023</v>
+        <v>0.003879255088299182</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.648304722869539e-05</v>
+        <v>1.648304721076638e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02323755460066028</v>
+        <v>0.023237554573326</v>
       </c>
       <c r="JY2" t="n">
-        <v>84891.32856782325</v>
+        <v>84891.32804196764</v>
       </c>
       <c r="JZ2" t="n">
-        <v>1.144036532850877</v>
+        <v>1.144036527306133</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.144036532850877</v>
+        <v>1.144036527306133</v>
       </c>
       <c r="KB2" t="n">
-        <v>310582.6204741439</v>
+        <v>310582.6202254322</v>
       </c>
       <c r="KC2" t="n">
-        <v>384785.957631812</v>
+        <v>384785.9572830885</v>
       </c>
       <c r="KD2" t="n">
-        <v>3788.609747961894</v>
+        <v>3788.609748390708</v>
       </c>
       <c r="KE2" t="n">
-        <v>716.5135610094225</v>
+        <v>716.5135609997621</v>
       </c>
       <c r="KF2" t="n">
-        <v>1005.174772339852</v>
+        <v>1005.174772325372</v>
       </c>
       <c r="KG2" t="n">
-        <v>322.5322907702909</v>
+        <v>322.5322905527019</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.9993202541131673</v>
+        <v>0.99932025411267</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.648304722869539e-05</v>
+        <v>1.648304721076638e-05</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.02323755460066028</v>
+        <v>0.023237554573326</v>
       </c>
       <c r="KK2" t="inlineStr">
         <is>
@@ -9594,97 +9594,97 @@
         <v>1</v>
       </c>
       <c r="KM2" t="n">
-        <v>295.5937144865572</v>
+        <v>295.5937144858961</v>
       </c>
       <c r="KN2" t="n">
-        <v>135289.0393740533</v>
+        <v>135289.0391749675</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.595200321195538</v>
+        <v>1.595200318850597</v>
       </c>
       <c r="KP2" t="n">
-        <v>336974.368316875</v>
+        <v>336974.3683168067</v>
       </c>
       <c r="KQ2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KR2" t="n">
-        <v>3788.609747967095</v>
+        <v>3788.609748388627</v>
       </c>
       <c r="KS2" t="n">
-        <v>-698104.7970529834</v>
+        <v>-698104.7971752813</v>
       </c>
       <c r="KT2" t="n">
-        <v>717.856175186903</v>
+        <v>717.8561751863758</v>
       </c>
       <c r="KU2" t="n">
-        <v>1006.777073039375</v>
+        <v>1006.777073036101</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.402477415169198</v>
+        <v>1.402477415165667</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.9995302899913486</v>
+        <v>0.9995302899920238</v>
       </c>
       <c r="KX2" t="n">
-        <v>344.8027749235729</v>
+        <v>344.8027749229835</v>
       </c>
       <c r="KY2" t="n">
-        <v>189651.6969613392</v>
+        <v>189651.6966819032</v>
       </c>
       <c r="KZ2" t="n">
-        <v>5.272823897820707e-06</v>
+        <v>5.272823905589773e-06</v>
       </c>
       <c r="LA2" t="n">
-        <v>135226.203937451</v>
+        <v>135226.203738547</v>
       </c>
       <c r="LB2" t="n">
-        <v>7.395016430857961e-06</v>
+        <v>7.395016441735282e-06</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.00339561987006422</v>
+        <v>0.003395619870053404</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.832925574428803e-05</v>
+        <v>1.832925574422725e-05</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.02606729613579906</v>
+        <v>0.02606729613568592</v>
       </c>
       <c r="LF2" t="n">
-        <v>135289.0393740533</v>
+        <v>135289.0391749675</v>
       </c>
       <c r="LG2" t="n">
-        <v>1.595200321195538</v>
+        <v>1.595200318850597</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.595200321195538</v>
+        <v>1.595200318850597</v>
       </c>
       <c r="LI2" t="n">
-        <v>336974.368316875</v>
+        <v>336974.3683168067</v>
       </c>
       <c r="LJ2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.431088389</v>
       </c>
       <c r="LK2" t="n">
-        <v>3788.609747967095</v>
+        <v>3788.609748388627</v>
       </c>
       <c r="LL2" t="n">
-        <v>717.856175186903</v>
+        <v>717.8561751863758</v>
       </c>
       <c r="LM2" t="n">
-        <v>1006.777073039375</v>
+        <v>1006.777073036101</v>
       </c>
       <c r="LN2" t="n">
-        <v>344.8027749235729</v>
+        <v>344.8027749229835</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.9995302899913486</v>
+        <v>0.9995302899920238</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.832925574428803e-05</v>
+        <v>1.832925574422725e-05</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.02606729613579906</v>
+        <v>0.02606729613568592</v>
       </c>
       <c r="LR2" t="inlineStr">
         <is>
@@ -9695,97 +9695,97 @@
         <v>1</v>
       </c>
       <c r="LT2" t="n">
-        <v>268.3436841087574</v>
+        <v>268.3436838995048</v>
       </c>
       <c r="LU2" t="n">
-        <v>96492.24854002446</v>
+        <v>96492.24813592886</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.253488949374467</v>
+        <v>1.253488945102658</v>
       </c>
       <c r="LW2" t="n">
-        <v>317488.4551109546</v>
+        <v>317488.4549617309</v>
       </c>
       <c r="LX2" t="n">
-        <v>394467.3934479677</v>
+        <v>394467.3932387066</v>
       </c>
       <c r="LY2" t="n">
-        <v>3788.60974796854</v>
+        <v>3788.609748390072</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-622182.1039722611</v>
+        <v>-622182.1035018616</v>
       </c>
       <c r="MA2" t="n">
-        <v>716.7921572759795</v>
+        <v>716.7921572689719</v>
       </c>
       <c r="MB2" t="n">
-        <v>1005.520591117402</v>
+        <v>1005.52059110647</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.402806351758472</v>
+        <v>1.402806351756935</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.9993653998615809</v>
+        <v>0.999365399861454</v>
       </c>
       <c r="ME2" t="n">
-        <v>328.5092923703237</v>
+        <v>328.5092922420136</v>
       </c>
       <c r="MF2" t="n">
-        <v>135274.4656448402</v>
+        <v>135274.4650781617</v>
       </c>
       <c r="MG2" t="n">
-        <v>7.392378119795908e-06</v>
+        <v>7.392378150763332e-06</v>
       </c>
       <c r="MH2" t="n">
-        <v>96431.31817536209</v>
+        <v>96431.31777150722</v>
       </c>
       <c r="MI2" t="n">
-        <v>1.037007498105006e-05</v>
+        <v>1.037007502447998e-05</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.003739816485365773</v>
+        <v>0.003739816488257156</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.69760449733769e-05</v>
+        <v>1.69760449627574e-05</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.02398989779738036</v>
+        <v>0.02398989778113123</v>
       </c>
       <c r="MM2" t="n">
-        <v>96492.24854002446</v>
+        <v>96492.24813592886</v>
       </c>
       <c r="MN2" t="n">
-        <v>1.253488949374467</v>
+        <v>1.253488945102658</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.253488949374467</v>
+        <v>1.253488945102658</v>
       </c>
       <c r="MP2" t="n">
-        <v>317488.4551109546</v>
+        <v>317488.4549617309</v>
       </c>
       <c r="MQ2" t="n">
-        <v>394467.3934479677</v>
+        <v>394467.3932387066</v>
       </c>
       <c r="MR2" t="n">
-        <v>3788.60974796854</v>
+        <v>3788.609748390072</v>
       </c>
       <c r="MS2" t="n">
-        <v>716.7921572759795</v>
+        <v>716.7921572689719</v>
       </c>
       <c r="MT2" t="n">
-        <v>1005.520591117402</v>
+        <v>1005.52059110647</v>
       </c>
       <c r="MU2" t="n">
-        <v>328.5092923703237</v>
+        <v>328.5092922420136</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.9993653998615809</v>
+        <v>0.999365399861454</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.69760449733769e-05</v>
+        <v>1.69760449627574e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.02398989779738036</v>
+        <v>0.02398989778113123</v>
       </c>
       <c r="MY2" t="inlineStr">
         <is>
@@ -9796,139 +9796,139 @@
         <v>1</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.843400199661823</v>
+        <v>0.8434002042021874</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.431431332150344</v>
+        <v>0.4314313355468643</v>
       </c>
       <c r="NC2" t="n">
-        <v>251687.5218410703</v>
+        <v>251687.5227066556</v>
       </c>
       <c r="ND2" t="n">
-        <v>2.750323506711419</v>
+        <v>2.750323501037678</v>
       </c>
       <c r="NE2" t="n">
-        <v>380804.8194828477</v>
+        <v>380804.8192734862</v>
       </c>
       <c r="NF2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG2" t="n">
-        <v>165.5471933371826</v>
+        <v>165.547264940666</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.8410510661716</v>
+        <v>139.8410904849258</v>
       </c>
       <c r="NI2" t="n">
-        <v>-88.60222152139818</v>
+        <v>-88.60229309290963</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-32.35803464895607</v>
+        <v>-32.35804827164861</v>
       </c>
       <c r="NK2" t="n">
-        <v>289.8680434978139</v>
+        <v>289.8681252065614</v>
       </c>
       <c r="NL2" t="n">
-        <v>139.8410510661716</v>
+        <v>139.8410904849258</v>
       </c>
       <c r="NM2" t="n">
-        <v>-253.9054215213982</v>
+        <v>-253.9054930929096</v>
       </c>
       <c r="NN2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NO2" t="n">
-        <v>226.3833022254009</v>
+        <v>226.3832783550565</v>
       </c>
       <c r="NP2" t="n">
-        <v>50711.02948835411</v>
+        <v>50711.00964187845</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7809540700462602</v>
+        <v>0.7809538467780831</v>
       </c>
       <c r="NR2" t="n">
-        <v>287520.9377395572</v>
+        <v>287520.920694268</v>
       </c>
       <c r="NS2" t="n">
-        <v>352455.6521272422</v>
+        <v>352455.6282331228</v>
       </c>
       <c r="NT2" t="n">
-        <v>3802.898796716098</v>
+        <v>3802.898803425954</v>
       </c>
       <c r="NU2" t="n">
-        <v>-508457.1355023513</v>
+        <v>-508457.0701389661</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8712584180822</v>
+        <v>715.8712580933678</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.24534484184</v>
+        <v>1004.245344335037</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.402829535384617</v>
+        <v>1.402829535312979</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992549630037922</v>
+        <v>0.9992549629734191</v>
       </c>
       <c r="NZ2" t="n">
-        <v>301.7027606102767</v>
+        <v>301.7027446871838</v>
       </c>
       <c r="OA2" t="n">
-        <v>71085.99729481693</v>
+        <v>71085.96946846177</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.40674681098258e-05</v>
+        <v>1.406747361648719e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>50673.29672049361</v>
+        <v>50673.27688720363</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.973425975254485e-05</v>
+        <v>1.973426747644431e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004430768780633493</v>
+        <v>0.004430769246560991</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.478048843912721e-05</v>
+        <v>1.478048714819245e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.02065715003960077</v>
+        <v>0.02065714809395587</v>
       </c>
       <c r="OH2" t="n">
-        <v>50711.02948835411</v>
+        <v>50711.00964187845</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.7809540700462602</v>
+        <v>0.7809538467780831</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.7809540700462602</v>
+        <v>0.7809538467780831</v>
       </c>
       <c r="OK2" t="n">
-        <v>287520.9377395572</v>
+        <v>287520.920694268</v>
       </c>
       <c r="OL2" t="n">
-        <v>352455.6521272422</v>
+        <v>352455.6282331228</v>
       </c>
       <c r="OM2" t="n">
-        <v>3802.898796716098</v>
+        <v>3802.898803425954</v>
       </c>
       <c r="ON2" t="n">
-        <v>715.8712584180822</v>
+        <v>715.8712580933678</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.24534484184</v>
+        <v>1004.245344335037</v>
       </c>
       <c r="OP2" t="n">
-        <v>301.7027606102767</v>
+        <v>301.7027446871838</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9992549630037922</v>
+        <v>0.9992549629734191</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.478048843912721e-05</v>
+        <v>1.478048714819245e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.02065715003960077</v>
+        <v>0.02065714809395587</v>
       </c>
       <c r="OT2" t="inlineStr">
         <is>
@@ -9939,97 +9939,97 @@
         <v>1</v>
       </c>
       <c r="OV2" t="n">
-        <v>240.0687922407734</v>
+        <v>240.068780211936</v>
       </c>
       <c r="OW2" t="n">
-        <v>62242.23729682375</v>
+        <v>62242.22495811497</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.9038627435964327</v>
+        <v>0.9038626097224574</v>
       </c>
       <c r="OY2" t="n">
-        <v>297296.1007799977</v>
+        <v>297296.0921913827</v>
       </c>
       <c r="OZ2" t="n">
-        <v>366158.5887382517</v>
+        <v>366158.5766979906</v>
       </c>
       <c r="PA2" t="n">
-        <v>3802.898796711274</v>
+        <v>3802.89880342113</v>
       </c>
       <c r="PB2" t="n">
-        <v>-546798.7324021143</v>
+        <v>-546798.7003087508</v>
       </c>
       <c r="PC2" t="n">
-        <v>716.0862824166737</v>
+        <v>716.0862821908512</v>
       </c>
       <c r="PD2" t="n">
-        <v>1004.547870119848</v>
+        <v>1004.547869783405</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.402830768842078</v>
+        <v>1.402830768814634</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9992882291498606</v>
+        <v>0.9992882291319191</v>
       </c>
       <c r="PG2" t="n">
-        <v>310.6988877465641</v>
+        <v>310.6988799539538</v>
       </c>
       <c r="PH2" t="n">
-        <v>87253.30427559225</v>
+        <v>87253.28697544527</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.146088401238616e-05</v>
+        <v>1.146088628479313e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>62198.02574448285</v>
+        <v>62198.0134133875</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.607768073070556e-05</v>
+        <v>1.607768391819344e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.004178679705359516</v>
+        <v>0.004178679914010536</v>
       </c>
       <c r="PM2" t="n">
-        <v>1.551232179548983e-05</v>
+        <v>1.551232115907178e-05</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.02176262193424383</v>
+        <v>0.02176262097040771</v>
       </c>
       <c r="PO2" t="n">
-        <v>62242.23729682375</v>
+        <v>62242.22495811497</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.9038627435964327</v>
+        <v>0.9038626097224574</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.9038627435964327</v>
+        <v>0.9038626097224574</v>
       </c>
       <c r="PR2" t="n">
-        <v>297296.1007799977</v>
+        <v>297296.0921913827</v>
       </c>
       <c r="PS2" t="n">
-        <v>366158.5887382517</v>
+        <v>366158.5766979906</v>
       </c>
       <c r="PT2" t="n">
-        <v>3802.898796711274</v>
+        <v>3802.89880342113</v>
       </c>
       <c r="PU2" t="n">
-        <v>716.0862824166737</v>
+        <v>716.0862821908512</v>
       </c>
       <c r="PV2" t="n">
-        <v>1004.547870119848</v>
+        <v>1004.547869783405</v>
       </c>
       <c r="PW2" t="n">
-        <v>310.6988877465641</v>
+        <v>310.6988799539538</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.9992882291498606</v>
+        <v>0.9992882291319191</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.551232179548983e-05</v>
+        <v>1.551232115907178e-05</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.02176262193424383</v>
+        <v>0.02176262097040771</v>
       </c>
       <c r="QA2" t="inlineStr">
         <is>
@@ -10040,97 +10040,97 @@
         <v>1</v>
       </c>
       <c r="QC2" t="n">
-        <v>268.330454140049</v>
+        <v>268.3304539251462</v>
       </c>
       <c r="QD2" t="n">
-        <v>91803.71182493077</v>
+        <v>91803.70943034998</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.192604577724062</v>
+        <v>1.19260454755618</v>
       </c>
       <c r="QF2" t="n">
-        <v>317489.8993650327</v>
+        <v>317489.8992164099</v>
       </c>
       <c r="QG2" t="n">
-        <v>394467.3934478802</v>
+        <v>394467.3932386062</v>
       </c>
       <c r="QH2" t="n">
-        <v>3802.898796712436</v>
+        <v>3802.898803415306</v>
       </c>
       <c r="QI2" t="n">
-        <v>-625966.1677226139</v>
+        <v>-625966.1689132182</v>
       </c>
       <c r="QJ2" t="n">
-        <v>716.7766612265926</v>
+        <v>716.7766612129735</v>
       </c>
       <c r="QK2" t="n">
-        <v>1005.423563391483</v>
+        <v>1005.423563339173</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.402701312387795</v>
+        <v>1.402701312341467</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.999395922635279</v>
+        <v>0.9993959226482526</v>
       </c>
       <c r="QN2" t="n">
-        <v>328.498879017963</v>
+        <v>328.4988788852334</v>
       </c>
       <c r="QO2" t="n">
-        <v>128695.7650083831</v>
+        <v>128695.7616489225</v>
       </c>
       <c r="QP2" t="n">
-        <v>7.770263457658152e-06</v>
+        <v>7.770263660492294e-06</v>
       </c>
       <c r="QQ2" t="n">
-        <v>91748.51685944923</v>
+        <v>91748.51446748585</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.089935874965601e-05</v>
+        <v>1.089935903381175e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.003739359132991725</v>
+        <v>0.003739359135687647</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.697466409656358e-05</v>
+        <v>1.697466408535575e-05</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.02398721461736258</v>
+        <v>0.02398721459997037</v>
       </c>
       <c r="QV2" t="n">
-        <v>91803.71182493077</v>
+        <v>91803.70943034998</v>
       </c>
       <c r="QW2" t="n">
-        <v>1.192604577724062</v>
+        <v>1.19260454755618</v>
       </c>
       <c r="QX2" t="n">
-        <v>1.192604577724062</v>
+        <v>1.19260454755618</v>
       </c>
       <c r="QY2" t="n">
-        <v>317489.8993650327</v>
+        <v>317489.8992164099</v>
       </c>
       <c r="QZ2" t="n">
-        <v>394467.3934478802</v>
+        <v>394467.3932386062</v>
       </c>
       <c r="RA2" t="n">
-        <v>3802.898796712436</v>
+        <v>3802.898803415306</v>
       </c>
       <c r="RB2" t="n">
-        <v>716.7766612265926</v>
+        <v>716.7766612129735</v>
       </c>
       <c r="RC2" t="n">
-        <v>1005.423563391483</v>
+        <v>1005.423563339173</v>
       </c>
       <c r="RD2" t="n">
-        <v>328.498879017963</v>
+        <v>328.4988788852334</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.999395922635279</v>
+        <v>0.9993959226482526</v>
       </c>
       <c r="RF2" t="n">
-        <v>1.697466409656358e-05</v>
+        <v>1.697466408535575e-05</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.02398721461736258</v>
+        <v>0.02398721459997037</v>
       </c>
       <c r="RH2" t="inlineStr">
         <is>
@@ -10141,64 +10141,64 @@
         <v>1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.02454735623279259</v>
+        <v>0.02454735537248915</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.002565106008522603</v>
+        <v>0.002565106819154684</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.01188196847385401</v>
+        <v>0.01188196845801276</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.03211970598158315</v>
+        <v>0.03211970612135986</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.04296617893165566</v>
+        <v>0.04296617915973491</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.114080315628408</v>
+        <v>0.1140803159307514</v>
       </c>
       <c r="RP2" t="n">
-        <v>1.631784738778674e-05</v>
+        <v>1.631746492572472e-05</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.5487095742919885</v>
+        <v>0.5487098405826945</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.9607735869286583</v>
+        <v>0.960773908461148</v>
       </c>
       <c r="RS2" t="n">
-        <v>399127.3210619404</v>
+        <v>399127.3543217783</v>
       </c>
       <c r="RT2" t="n">
-        <v>2.750304351794029</v>
+        <v>2.750304340767852</v>
       </c>
       <c r="RU2" t="n">
-        <v>380804.8194828477</v>
+        <v>380804.8192734862</v>
       </c>
       <c r="RV2" t="n">
         <v>0</v>
       </c>
       <c r="RW2" t="n">
-        <v>2666.336724927009</v>
+        <v>2666.336755544762</v>
       </c>
       <c r="RX2" t="n">
-        <v>6.130849423354974</v>
+        <v>6.130851772162757</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.00889820643264606</v>
+        <v>0.008898207079776043</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.0006976904690779866</v>
+        <v>0.0006976909277565617</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.01162806037135472</v>
+        <v>0.01162806061222417</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.01540785188272841</v>
+        <v>0.01540785185032744</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.00432318451600341</v>
+        <v>0.004323184335162118</v>
       </c>
     </row>
     <row r="3">
@@ -10206,34 +10206,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01595100155552246</v>
+        <v>0.01595100148124403</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793991236282568e-07</v>
+        <v>-1.793991224821953e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379123038325241</v>
+        <v>0.01379123038079538</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0251839910126247</v>
+        <v>0.02518399104573698</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492604355227594</v>
+        <v>0.05492604350865391</v>
       </c>
       <c r="H3" t="n">
-        <v>1.656029480212595e-12</v>
+        <v>-4.501309047721946e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172502647</v>
+        <v>81.75758172375689</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172502647</v>
+        <v>81.75758172375689</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172502647</v>
+        <v>81.75758172375689</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172502647</v>
+        <v>81.75758172375689</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10254,28 +10254,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180726006</v>
+        <v>292.2676180726041</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394376659</v>
+        <v>132637.8394376717</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096101899</v>
+        <v>1.58179009610195</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834751637</v>
+        <v>334589.2834751661</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800039277</v>
+        <v>418442.2800039311</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723464</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625807293</v>
+        <v>-687181.9625807389</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7090713704063</v>
+        <v>717.7090713704064</v>
       </c>
       <c r="Z3" t="n">
         <v>1006.643209103398</v>
@@ -10287,64 +10287,64 @@
         <v>0.9994973723756401</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121222499</v>
+        <v>342.8584121222519</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165869508</v>
+        <v>185942.4165869589</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.37800905439119e-06</v>
+        <v>5.378009054390954e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565725525</v>
+        <v>132571.8565725583</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095771212e-06</v>
+        <v>7.543079095770882e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038598778</v>
+        <v>0.003434455038598737</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856047178e-05</v>
+        <v>1.816725856047196e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190128136</v>
+        <v>0.02581791190128163</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394376659</v>
+        <v>132637.8394376717</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096101899</v>
+        <v>1.58179009610195</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096101899</v>
+        <v>1.58179009610195</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834751637</v>
+        <v>334589.2834751661</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800039277</v>
+        <v>418442.2800039311</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723464</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7090713704063</v>
+        <v>717.7090713704064</v>
       </c>
       <c r="AR3" t="n">
         <v>1006.643209103398</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121222499</v>
+        <v>342.8584121222519</v>
       </c>
       <c r="AT3" t="n">
         <v>0.9994973723756401</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856047178e-05</v>
+        <v>1.816725856047196e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190128136</v>
+        <v>0.02581791190128163</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10557,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2384587305849008</v>
+        <v>0.2384587305811964</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2384587305849008</v>
+        <v>0.2384587305811964</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.5323212193</v>
+        <v>186219.5323183317</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369934737468</v>
+        <v>2.776369934694443</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885895</v>
@@ -10575,121 +10575,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.3780775581455</v>
+        <v>309.3780814393372</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136416193513</v>
+        <v>126.4136432052282</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.3727785855219</v>
+        <v>282.3727821279282</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.3780775581455</v>
+        <v>309.3780814393372</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136416193513</v>
+        <v>126.4136432052282</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.3727785855219</v>
+        <v>282.3727821279282</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365047139532</v>
+        <v>247.8365035146088</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.23762169036</v>
+        <v>72726.23635589545</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.023014668304999</v>
+        <v>1.023014655454098</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.9116087963</v>
+        <v>302836.9107521391</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0336519027</v>
+        <v>373927.0324509466</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.093061356695</v>
+        <v>3790.093061503413</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.383215347</v>
+        <v>-565396.3799070383</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430510729</v>
+        <v>716.2529430251842</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581196643</v>
+        <v>1004.831581161806</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402900457087535</v>
+        <v>1.402900457089606</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812858997057</v>
+        <v>0.9992812858958319</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.6911154063171</v>
+        <v>315.6911146414614</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5424506431</v>
+        <v>101954.5406758806</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.808292754431288e-06</v>
+        <v>9.808292925168066e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.11022326122</v>
+        <v>72674.10895808744</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.376005838844002e-05</v>
+        <v>1.376005862798702e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004048559448742816</v>
+        <v>0.004048559468287886</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113115520489e-05</v>
+        <v>1.592113109253224e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02238288371752355</v>
+        <v>0.02238288362237198</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.23762169036</v>
+        <v>72726.23635589545</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.023014668304999</v>
+        <v>1.023014655454098</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.023014668304999</v>
+        <v>1.023014655454098</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.9116087963</v>
+        <v>302836.9107521391</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0336519027</v>
+        <v>373927.0324509466</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.093061356695</v>
+        <v>3790.093061503413</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430510729</v>
+        <v>716.2529430251842</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581196643</v>
+        <v>1004.831581161806</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.6911154063171</v>
+        <v>315.6911146414614</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812858997057</v>
+        <v>0.9992812858958319</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113115520489e-05</v>
+        <v>1.592113109253224e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02238288371752355</v>
+        <v>0.02238288362237198</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10700,97 +10700,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5920968650062</v>
+        <v>295.5920968648468</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.4165419912</v>
+        <v>134591.4164731666</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979527061147</v>
+        <v>1.586979526250114</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309325184</v>
+        <v>336974.6309325445</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061366343</v>
+        <v>3790.09306151306</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.1242340981</v>
+        <v>-698537.1242768622</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8543580607814</v>
+        <v>717.8543580606018</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.765618720458</v>
+        <v>1006.765618719328</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402465008975003</v>
+        <v>1.402465008973779</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995326648234623</v>
+        <v>0.9995326648236965</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163635774</v>
+        <v>344.8011163634139</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.5202420571</v>
+        <v>188672.5201454562</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.300188913133993e-06</v>
+        <v>5.300188915847706e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.2175096398</v>
+        <v>134529.2174408778</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329491627675e-06</v>
+        <v>7.433329495427077e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843598633</v>
+        <v>0.00339557384359409</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665247167e-05</v>
+        <v>1.832907665245401e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606695184419091</v>
+        <v>0.02606695184415696</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.4165419912</v>
+        <v>134591.4164731666</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979527061147</v>
+        <v>1.586979526250114</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979527061147</v>
+        <v>1.586979526250114</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309325184</v>
+        <v>336974.6309325445</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061366343</v>
+        <v>3790.09306151306</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8543580607814</v>
+        <v>717.8543580606018</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.765618720458</v>
+        <v>1006.765618719328</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163635774</v>
+        <v>344.8011163634139</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995326648234623</v>
+        <v>0.9995326648236965</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665247167e-05</v>
+        <v>1.832907665245401e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606695184419091</v>
+        <v>0.02606695184415696</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10801,97 +10801,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5920968650062</v>
+        <v>295.5920968648468</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.4165419912</v>
+        <v>134591.4164731666</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979527061147</v>
+        <v>1.586979526250114</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309325184</v>
+        <v>336974.6309325445</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061366343</v>
+        <v>3790.09306151306</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.1242340981</v>
+        <v>-698537.1242768622</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8543580607814</v>
+        <v>717.8543580606018</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.765618720458</v>
+        <v>1006.765618719328</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402465008975003</v>
+        <v>1.402465008973779</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995326648234623</v>
+        <v>0.9995326648236965</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163635774</v>
+        <v>344.8011163634139</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.5202420571</v>
+        <v>188672.5201454562</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.300188913133993e-06</v>
+        <v>5.300188915847706e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.2175096398</v>
+        <v>134529.2174408778</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329491627675e-06</v>
+        <v>7.433329495427077e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843598633</v>
+        <v>0.00339557384359409</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665247167e-05</v>
+        <v>1.832907665245401e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606695184419091</v>
+        <v>0.02606695184415696</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.4165419912</v>
+        <v>134591.4164731666</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979527061147</v>
+        <v>1.586979526250114</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979527061147</v>
+        <v>1.586979526250114</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309325184</v>
+        <v>336974.6309325445</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.4310886897</v>
+        <v>421784.43108869</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061366343</v>
+        <v>3790.09306151306</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8543580607814</v>
+        <v>717.8543580606018</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.765618720458</v>
+        <v>1006.765618719328</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163635774</v>
+        <v>344.8011163634139</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995326648234623</v>
+        <v>0.9995326648236965</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665247167e-05</v>
+        <v>1.832907665245401e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606695184419091</v>
+        <v>0.02606695184415696</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10902,37 +10902,37 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01619337326683658</v>
+        <v>0.01619337327790871</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.972005765398234e-07</v>
+        <v>-1.972005787295354e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827868032</v>
+        <v>0.01379727827868001</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02510093007318221</v>
+        <v>0.02510093007318956</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.05509138441812257</v>
+        <v>0.05509138442919955</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.578243630038893e-06</v>
+        <v>5.578243684564721e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9800024848971559</v>
+        <v>0.9800024995657729</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9800024848971559</v>
+        <v>0.9800024995657729</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1647104195</v>
+        <v>520038.1667488603</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362991770805</v>
+        <v>2.776362991724568</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885895</v>
@@ -10941,166 +10941,166 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>1485.077933681023</v>
+        <v>1485.077906340128</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.006324918477669255</v>
+        <v>0.006324918333399873</v>
       </c>
       <c r="IL3" t="n">
-        <v>-7.11356480008109e-08</v>
+        <v>-7.113564625504578e-08</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.009985999283039325</v>
+        <v>0.009985999114893019</v>
       </c>
       <c r="IN3" t="n">
         <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.005468522310476933</v>
+        <v>0.005468522210232474</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02459644875716874</v>
+        <v>0.02459644789275265</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.002168222032821264</v>
+        <v>0.002168221436951302</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.01188668116697619</v>
+        <v>0.01188668124020031</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.03204646911321475</v>
+        <v>0.03204646856068399</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04267186693348681</v>
+        <v>0.04267186646279316</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1133696880036678</v>
+        <v>0.1133696855933814</v>
       </c>
       <c r="IV3" t="n">
-        <v>9.652065258158871e-11</v>
+        <v>-2.084152017634011e-10</v>
       </c>
       <c r="IW3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX3" t="n">
-        <v>272.2090744725242</v>
+        <v>272.209073624088</v>
       </c>
       <c r="IY3" t="n">
-        <v>111.9871314415757</v>
+        <v>111.9871314141872</v>
       </c>
       <c r="IZ3" t="n">
-        <v>248.1061519121915</v>
+        <v>248.1061509936941</v>
       </c>
       <c r="JA3" t="n">
-        <v>65.707115518319</v>
+        <v>65.70711544403744</v>
       </c>
       <c r="JB3" t="n">
-        <v>139.2747157738455</v>
+        <v>139.2747152057492</v>
       </c>
       <c r="JC3" t="n">
-        <v>111.9871314415757</v>
+        <v>111.9871314141872</v>
       </c>
       <c r="JD3" t="n">
-        <v>82.8029519121915</v>
+        <v>82.80295099369411</v>
       </c>
       <c r="JE3" t="n">
-        <v>36.47911116409204</v>
+        <v>36.47911086696532</v>
       </c>
       <c r="JF3" t="n">
-        <v>258.6294202318751</v>
+        <v>258.6294204626631</v>
       </c>
       <c r="JG3" t="n">
-        <v>84817.68621855693</v>
+        <v>84817.68652153524</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.143266858655561</v>
+        <v>1.143266861718458</v>
       </c>
       <c r="JI3" t="n">
-        <v>310546.6623459446</v>
+        <v>310546.6625107497</v>
       </c>
       <c r="JJ3" t="n">
-        <v>384735.5409759955</v>
+        <v>384735.5412070541</v>
       </c>
       <c r="JK3" t="n">
-        <v>3788.663779992658</v>
+        <v>3788.66377986138</v>
       </c>
       <c r="JL3" t="n">
-        <v>-595124.3758970101</v>
+        <v>-595124.3765063771</v>
       </c>
       <c r="JM3" t="n">
-        <v>716.5121736209584</v>
+        <v>716.5121736271883</v>
       </c>
       <c r="JN3" t="n">
-        <v>1005.172733098406</v>
+        <v>1005.17273310697</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.402869023171895</v>
+        <v>1.40286902317165</v>
       </c>
       <c r="JP3" t="n">
-        <v>0.999320163638299</v>
+        <v>0.9993201636389865</v>
       </c>
       <c r="JQ3" t="n">
-        <v>322.5008363879554</v>
+        <v>322.5008365320433</v>
       </c>
       <c r="JR3" t="n">
-        <v>118907.5154772813</v>
+        <v>118907.515902095</v>
       </c>
       <c r="JS3" t="n">
-        <v>8.409897355824091e-06</v>
+        <v>8.409897325778554e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>84760.24027419937</v>
+        <v>84760.24057703209</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.179798448854085e-05</v>
+        <v>1.179798444638883e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.003880006730226883</v>
+        <v>0.003880006726777544</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.648045577744418e-05</v>
+        <v>1.648045578931052e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02323360406157565</v>
+        <v>0.02323360407966058</v>
       </c>
       <c r="JY3" t="n">
-        <v>84817.68621855693</v>
+        <v>84817.68652153524</v>
       </c>
       <c r="JZ3" t="n">
-        <v>1.143266858655561</v>
+        <v>1.143266861718458</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.143266858655561</v>
+        <v>1.143266861718458</v>
       </c>
       <c r="KB3" t="n">
-        <v>310546.6623459446</v>
+        <v>310546.6625107497</v>
       </c>
       <c r="KC3" t="n">
-        <v>384735.5409759955</v>
+        <v>384735.5412070541</v>
       </c>
       <c r="KD3" t="n">
-        <v>3788.663779992658</v>
+        <v>3788.66377986138</v>
       </c>
       <c r="KE3" t="n">
-        <v>716.5121736209584</v>
+        <v>716.5121736271883</v>
       </c>
       <c r="KF3" t="n">
-        <v>1005.172733098406</v>
+        <v>1005.17273310697</v>
       </c>
       <c r="KG3" t="n">
-        <v>322.5008363879554</v>
+        <v>322.5008365320433</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.999320163638299</v>
+        <v>0.9993201636389865</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.648045577744418e-05</v>
+        <v>1.648045578931052e-05</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.02323360406157565</v>
+        <v>0.02323360407966058</v>
       </c>
       <c r="KK3" t="inlineStr">
         <is>
@@ -11111,97 +11111,97 @@
         <v>1</v>
       </c>
       <c r="KM3" t="n">
-        <v>295.5936554164223</v>
+        <v>295.5936554163735</v>
       </c>
       <c r="KN3" t="n">
-        <v>135263.5639866589</v>
+        <v>135263.5640516646</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.594900119888408</v>
+        <v>1.594900120655513</v>
       </c>
       <c r="KP3" t="n">
-        <v>336974.3779074521</v>
+        <v>336974.3779072842</v>
       </c>
       <c r="KQ3" t="n">
-        <v>421784.4310887905</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="KR3" t="n">
-        <v>3788.663779997859</v>
+        <v>3788.663779859294</v>
       </c>
       <c r="KS3" t="n">
-        <v>-698120.5447845767</v>
+        <v>-698120.5447436335</v>
       </c>
       <c r="KT3" t="n">
-        <v>717.8561088310735</v>
+        <v>717.8561088312341</v>
       </c>
       <c r="KU3" t="n">
-        <v>1006.776654760785</v>
+        <v>1006.776654761847</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.40247696213128</v>
+        <v>1.402476962132445</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.9995303767055318</v>
+        <v>0.999530376705308</v>
       </c>
       <c r="KX3" t="n">
-        <v>344.8027143549234</v>
+        <v>344.8027143549617</v>
       </c>
       <c r="KY3" t="n">
-        <v>189615.9397255237</v>
+        <v>189615.9398167662</v>
       </c>
       <c r="KZ3" t="n">
-        <v>5.273818231987977e-06</v>
+        <v>5.273818229450233e-06</v>
       </c>
       <c r="LA3" t="n">
-        <v>135200.7518450592</v>
+        <v>135200.751910005</v>
       </c>
       <c r="LB3" t="n">
-        <v>7.396408572831056e-06</v>
+        <v>7.396408569278073e-06</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.003395618189355319</v>
+        <v>0.003395618189361926</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.832924920424184e-05</v>
+        <v>1.832924920424886e-05</v>
       </c>
       <c r="LE3" t="n">
-        <v>0.02606728356290317</v>
+        <v>0.02606728356292037</v>
       </c>
       <c r="LF3" t="n">
-        <v>135263.5639866589</v>
+        <v>135263.5640516646</v>
       </c>
       <c r="LG3" t="n">
-        <v>1.594900119888408</v>
+        <v>1.594900120655513</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.594900119888408</v>
+        <v>1.594900120655513</v>
       </c>
       <c r="LI3" t="n">
-        <v>336974.3779074521</v>
+        <v>336974.3779072842</v>
       </c>
       <c r="LJ3" t="n">
-        <v>421784.4310887905</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="LK3" t="n">
-        <v>3788.663779997859</v>
+        <v>3788.663779859294</v>
       </c>
       <c r="LL3" t="n">
-        <v>717.8561088310735</v>
+        <v>717.8561088312341</v>
       </c>
       <c r="LM3" t="n">
-        <v>1006.776654760785</v>
+        <v>1006.776654761847</v>
       </c>
       <c r="LN3" t="n">
-        <v>344.8027143549234</v>
+        <v>344.8027143549617</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.9995303767055318</v>
+        <v>0.999530376705308</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.832924920424184e-05</v>
+        <v>1.832924920424886e-05</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.02606728356290317</v>
+        <v>0.02606728356292037</v>
       </c>
       <c r="LR3" t="inlineStr">
         <is>
@@ -11212,97 +11212,97 @@
         <v>1</v>
       </c>
       <c r="LT3" t="n">
-        <v>268.3105683072253</v>
+        <v>268.3105684585905</v>
       </c>
       <c r="LU3" t="n">
-        <v>96432.56277121954</v>
+        <v>96432.56300764636</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.252868271561899</v>
+        <v>1.252868273926229</v>
       </c>
       <c r="LW3" t="n">
-        <v>317464.8293789965</v>
+        <v>317464.8294870694</v>
       </c>
       <c r="LX3" t="n">
-        <v>394434.2642031389</v>
+        <v>394434.2643546686</v>
       </c>
       <c r="LY3" t="n">
-        <v>3788.663779999307</v>
+        <v>3788.66377986074</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-622104.2677334755</v>
+        <v>-622104.268118239</v>
       </c>
       <c r="MA3" t="n">
-        <v>716.7910622911044</v>
+        <v>716.7910622959907</v>
       </c>
       <c r="MB3" t="n">
-        <v>1005.518949152784</v>
+        <v>1005.518949159537</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.402806203998706</v>
+        <v>1.402806203998564</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.9993653520368607</v>
+        <v>0.9993653520373168</v>
       </c>
       <c r="ME3" t="n">
-        <v>328.4889878114739</v>
+        <v>328.4889879042665</v>
       </c>
       <c r="MF3" t="n">
-        <v>135190.7697779943</v>
+        <v>135190.7701094957</v>
       </c>
       <c r="MG3" t="n">
-        <v>7.39695470069566e-06</v>
+        <v>7.396954682557582e-06</v>
       </c>
       <c r="MH3" t="n">
-        <v>96371.66516132618</v>
+        <v>96371.66539764896</v>
       </c>
       <c r="MI3" t="n">
-        <v>1.037649394483326e-05</v>
+        <v>1.037649391938801e-05</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.003740274708584769</v>
+        <v>0.003740274706485081</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.697436496480482e-05</v>
+        <v>1.697436497247843e-05</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.02398732771410628</v>
+        <v>0.02398732772584088</v>
       </c>
       <c r="MM3" t="n">
-        <v>96432.56277121954</v>
+        <v>96432.56300764636</v>
       </c>
       <c r="MN3" t="n">
-        <v>1.252868271561899</v>
+        <v>1.252868273926229</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.252868271561899</v>
+        <v>1.252868273926229</v>
       </c>
       <c r="MP3" t="n">
-        <v>317464.8293789965</v>
+        <v>317464.8294870694</v>
       </c>
       <c r="MQ3" t="n">
-        <v>394434.2642031389</v>
+        <v>394434.2643546686</v>
       </c>
       <c r="MR3" t="n">
-        <v>3788.663779999307</v>
+        <v>3788.66377986074</v>
       </c>
       <c r="MS3" t="n">
-        <v>716.7910622911044</v>
+        <v>716.7910622959907</v>
       </c>
       <c r="MT3" t="n">
-        <v>1005.518949152784</v>
+        <v>1005.518949159537</v>
       </c>
       <c r="MU3" t="n">
-        <v>328.4889878114739</v>
+        <v>328.4889879042665</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.9993653520368607</v>
+        <v>0.9993653520373168</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.697436496480482e-05</v>
+        <v>1.697436497247843e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.02398732771410628</v>
+        <v>0.02398732772584088</v>
       </c>
       <c r="MY3" t="inlineStr">
         <is>
@@ -11313,139 +11313,139 @@
         <v>1</v>
       </c>
       <c r="NA3" t="n">
-        <v>0.8440569566308589</v>
+        <v>0.8440569536229457</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.4318584637910944</v>
+        <v>0.4318584618366131</v>
       </c>
       <c r="NC3" t="n">
-        <v>251782.237254773</v>
+        <v>251782.2367210166</v>
       </c>
       <c r="ND3" t="n">
-        <v>2.748629340790031</v>
+        <v>2.748629347481586</v>
       </c>
       <c r="NE3" t="n">
-        <v>380771.6902379186</v>
+        <v>380771.6903896488</v>
       </c>
       <c r="NF3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG3" t="n">
-        <v>165.5222538674959</v>
+        <v>165.5222252521274</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.8273212136137</v>
+        <v>139.8273054597203</v>
       </c>
       <c r="NI3" t="n">
-        <v>-88.57729261837179</v>
+        <v>-88.57726401447536</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-32.35328904431902</v>
+        <v>-32.35328359830082</v>
       </c>
       <c r="NK3" t="n">
-        <v>289.8395837181703</v>
+        <v>289.839551062879</v>
       </c>
       <c r="NL3" t="n">
-        <v>139.8273212136137</v>
+        <v>139.8273054597203</v>
       </c>
       <c r="NM3" t="n">
-        <v>-253.8804926183718</v>
+        <v>-253.8804640144754</v>
       </c>
       <c r="NN3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NO3" t="n">
-        <v>226.3584034404551</v>
+        <v>226.3584130473333</v>
       </c>
       <c r="NP3" t="n">
-        <v>50679.19930934635</v>
+        <v>50679.20729847311</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7805496285540185</v>
+        <v>0.7805497184639705</v>
       </c>
       <c r="NR3" t="n">
-        <v>287503.1909596761</v>
+        <v>287503.1978197222</v>
       </c>
       <c r="NS3" t="n">
-        <v>352430.7720581777</v>
+        <v>352430.7816746032</v>
       </c>
       <c r="NT3" t="n">
-        <v>3802.968984887484</v>
+        <v>3802.968982153626</v>
       </c>
       <c r="NU3" t="n">
-        <v>-508403.2156945215</v>
+        <v>-508403.2419939241</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.870860702914</v>
+        <v>715.8708608335508</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.244465683678</v>
+        <v>1004.244465887731</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.40282908665623</v>
+        <v>1.402829086685274</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992550947506869</v>
+        <v>0.9992550947628062</v>
       </c>
       <c r="NZ3" t="n">
-        <v>301.6861600865299</v>
+        <v>301.6861664952933</v>
       </c>
       <c r="OA3" t="n">
-        <v>71041.36475601762</v>
+        <v>71041.3759574151</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.40763061553557e-05</v>
+        <v>1.407630393588432e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>50641.49683790143</v>
+        <v>50641.50482171554</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.97466517074111e-05</v>
+        <v>1.974664859428093e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004431251872251578</v>
+        <v>0.0044312516846944</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.477914002884256e-05</v>
+        <v>1.477914054841515e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02065511578966413</v>
+        <v>0.02065511657273712</v>
       </c>
       <c r="OH3" t="n">
-        <v>50679.19930934635</v>
+        <v>50679.20729847311</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.7805496285540185</v>
+        <v>0.7805497184639705</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.7805496285540185</v>
+        <v>0.7805497184639705</v>
       </c>
       <c r="OK3" t="n">
-        <v>287503.1909596761</v>
+        <v>287503.1978197222</v>
       </c>
       <c r="OL3" t="n">
-        <v>352430.7720581777</v>
+        <v>352430.7816746032</v>
       </c>
       <c r="OM3" t="n">
-        <v>3802.968984887484</v>
+        <v>3802.968982153626</v>
       </c>
       <c r="ON3" t="n">
-        <v>715.870860702914</v>
+        <v>715.8708608335508</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.244465683678</v>
+        <v>1004.244465887731</v>
       </c>
       <c r="OP3" t="n">
-        <v>301.6861600865299</v>
+        <v>301.6861664952933</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992550947506869</v>
+        <v>0.9992550947628062</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.477914002884256e-05</v>
+        <v>1.477914054841515e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02065511578966413</v>
+        <v>0.02065511657273712</v>
       </c>
       <c r="OT3" t="inlineStr">
         <is>
@@ -11456,97 +11456,97 @@
         <v>1</v>
       </c>
       <c r="OV3" t="n">
-        <v>240.0397704225626</v>
+        <v>240.0397752979887</v>
       </c>
       <c r="OW3" t="n">
-        <v>62200.79980760766</v>
+        <v>62200.80480891849</v>
       </c>
       <c r="OX3" t="n">
-        <v>0.9033701277068559</v>
+        <v>0.9033701819883357</v>
       </c>
       <c r="OY3" t="n">
-        <v>297275.4109167021</v>
+        <v>297275.4143977592</v>
       </c>
       <c r="OZ3" t="n">
-        <v>366129.5803206651</v>
+        <v>366129.585200711</v>
       </c>
       <c r="PA3" t="n">
-        <v>3802.968984882541</v>
+        <v>3802.968982148684</v>
       </c>
       <c r="PB3" t="n">
-        <v>-546734.2217346658</v>
+        <v>-546734.2347394796</v>
       </c>
       <c r="PC3" t="n">
-        <v>716.0856859302795</v>
+        <v>716.0856860217647</v>
       </c>
       <c r="PD3" t="n">
-        <v>1004.546741268635</v>
+        <v>1004.546741405012</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.402830360955492</v>
+        <v>1.402830360966718</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9992883191854931</v>
+        <v>0.999288319192718</v>
       </c>
       <c r="PG3" t="n">
-        <v>310.6800895829173</v>
+        <v>310.6800927415389</v>
       </c>
       <c r="PH3" t="n">
-        <v>87195.19812133396</v>
+        <v>87195.20513368936</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.146852145009727e-05</v>
+        <v>1.146852052778339e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>62156.6231728431</v>
+        <v>62156.6281710651</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.608839008546576e-05</v>
+        <v>1.608838879174459e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.004179180696276802</v>
+        <v>0.004179180611688357</v>
       </c>
       <c r="PM3" t="n">
-        <v>1.551078441031129e-05</v>
+        <v>1.551078466827104e-05</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.0217602917863275</v>
+        <v>0.02176029217699635</v>
       </c>
       <c r="PO3" t="n">
-        <v>62200.79980760766</v>
+        <v>62200.80480891849</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.9033701277068559</v>
+        <v>0.9033701819883357</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9033701277068559</v>
+        <v>0.9033701819883357</v>
       </c>
       <c r="PR3" t="n">
-        <v>297275.4109167021</v>
+        <v>297275.4143977592</v>
       </c>
       <c r="PS3" t="n">
-        <v>366129.5803206651</v>
+        <v>366129.585200711</v>
       </c>
       <c r="PT3" t="n">
-        <v>3802.968984882541</v>
+        <v>3802.968982148684</v>
       </c>
       <c r="PU3" t="n">
-        <v>716.0856859302795</v>
+        <v>716.0856860217647</v>
       </c>
       <c r="PV3" t="n">
-        <v>1004.546741268635</v>
+        <v>1004.546741405012</v>
       </c>
       <c r="PW3" t="n">
-        <v>310.6800895829173</v>
+        <v>310.6800927415389</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.9992883191854931</v>
+        <v>0.999288319192718</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.551078441031129e-05</v>
+        <v>1.551078466827104e-05</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.0217602917863275</v>
+        <v>0.02176029217699635</v>
       </c>
       <c r="QA3" t="inlineStr">
         <is>
@@ -11557,97 +11557,97 @@
         <v>1</v>
       </c>
       <c r="QC3" t="n">
-        <v>268.297328716708</v>
+        <v>268.2973288707919</v>
       </c>
       <c r="QD3" t="n">
-        <v>91741.75914379649</v>
+        <v>91741.76020138685</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.191946922002878</v>
+        <v>1.191946935064942</v>
       </c>
       <c r="QF3" t="n">
-        <v>317466.2738920684</v>
+        <v>317466.2740001673</v>
       </c>
       <c r="QG3" t="n">
-        <v>394434.2642029448</v>
+        <v>394434.2643548624</v>
       </c>
       <c r="QH3" t="n">
-        <v>3802.968984883822</v>
+        <v>3802.968982142974</v>
       </c>
       <c r="QI3" t="n">
-        <v>-625892.1556338752</v>
+        <v>-625892.1553325718</v>
       </c>
       <c r="QJ3" t="n">
-        <v>716.775553781628</v>
+        <v>716.7755537892631</v>
       </c>
       <c r="QK3" t="n">
-        <v>1005.421845570597</v>
+        <v>1005.421845594487</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.402701083018391</v>
+        <v>1.40270108303678</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.9993959110521253</v>
+        <v>0.999395911047136</v>
       </c>
       <c r="QN3" t="n">
-        <v>328.4785705679893</v>
+        <v>328.4785706628359</v>
       </c>
       <c r="QO3" t="n">
-        <v>128608.8931974614</v>
+        <v>128608.8946811046</v>
       </c>
       <c r="QP3" t="n">
-        <v>7.775512059377081e-06</v>
+        <v>7.775511969678108e-06</v>
       </c>
       <c r="QQ3" t="n">
-        <v>91686.60005645346</v>
+        <v>91686.60111295599</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.09067191867108e-05</v>
+        <v>1.090671906103293e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.00373981690974099</v>
+        <v>0.00373981690771706</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.697298318052468e-05</v>
+        <v>1.697298318846075e-05</v>
       </c>
       <c r="QU3" t="n">
-        <v>0.0239846427342739</v>
+        <v>0.02398464274651049</v>
       </c>
       <c r="QV3" t="n">
-        <v>91741.75914379649</v>
+        <v>91741.76020138685</v>
       </c>
       <c r="QW3" t="n">
-        <v>1.191946922002878</v>
+        <v>1.191946935064942</v>
       </c>
       <c r="QX3" t="n">
-        <v>1.191946922002878</v>
+        <v>1.191946935064942</v>
       </c>
       <c r="QY3" t="n">
-        <v>317466.2738920684</v>
+        <v>317466.2740001673</v>
       </c>
       <c r="QZ3" t="n">
-        <v>394434.2642029448</v>
+        <v>394434.2643548624</v>
       </c>
       <c r="RA3" t="n">
-        <v>3802.968984883822</v>
+        <v>3802.968982142974</v>
       </c>
       <c r="RB3" t="n">
-        <v>716.775553781628</v>
+        <v>716.7755537892631</v>
       </c>
       <c r="RC3" t="n">
-        <v>1005.421845570597</v>
+        <v>1005.421845594487</v>
       </c>
       <c r="RD3" t="n">
-        <v>328.4785705679893</v>
+        <v>328.4785706628359</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.9993959110521253</v>
+        <v>0.999395911047136</v>
       </c>
       <c r="RF3" t="n">
-        <v>1.697298318052468e-05</v>
+        <v>1.697298318846075e-05</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.0239846427342739</v>
+        <v>0.02398464274651049</v>
       </c>
       <c r="RH3" t="inlineStr">
         <is>
@@ -11658,64 +11658,64 @@
         <v>1</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.02457225791497305</v>
+        <v>0.02457225823485356</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.002612288951704406</v>
+        <v>0.002612288504245299</v>
       </c>
       <c r="RL3" t="n">
-        <v>0.01187896608326622</v>
+        <v>0.01187896609704686</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.03214632332463118</v>
+        <v>0.03214632320260979</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.04300932520810652</v>
+        <v>0.04300932501005133</v>
       </c>
       <c r="RO3" t="n">
-        <v>0.1142191614826814</v>
+        <v>0.1142191610488068</v>
       </c>
       <c r="RP3" t="n">
-        <v>1.637683579490401e-05</v>
+        <v>1.637649558565435e-05</v>
       </c>
       <c r="RQ3" t="n">
-        <v>0.5486571005445549</v>
+        <v>0.548656994037908</v>
       </c>
       <c r="RR3" t="n">
-        <v>0.960732118553394</v>
+        <v>0.9607319899018337</v>
       </c>
       <c r="RS3" t="n">
-        <v>398917.8466376984</v>
+        <v>398917.8336191772</v>
       </c>
       <c r="RT3" t="n">
-        <v>2.748610130544863</v>
+        <v>2.748610137474696</v>
       </c>
       <c r="RU3" t="n">
-        <v>380771.6902379186</v>
+        <v>380771.6903896488</v>
       </c>
       <c r="RV3" t="n">
         <v>0</v>
       </c>
       <c r="RW3" t="n">
-        <v>2819.854654339841</v>
+        <v>2819.854626027518</v>
       </c>
       <c r="RX3" t="n">
-        <v>6.469778165134493</v>
+        <v>6.469777191225241</v>
       </c>
       <c r="RY3" t="n">
-        <v>0.00897218514914316</v>
+        <v>0.008972184929677416</v>
       </c>
       <c r="RZ3" t="n">
-        <v>0.000790914563113672</v>
+        <v>0.0007909143542043734</v>
       </c>
       <c r="SA3" t="n">
-        <v>0.01168977103559551</v>
+        <v>0.01168977095893061</v>
       </c>
       <c r="SB3" t="n">
-        <v>0.01556565724453443</v>
+        <v>0.01556565723912881</v>
       </c>
       <c r="SC3" t="n">
-        <v>0.004335971639314801</v>
+        <v>0.004335971712347489</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4091082374078398</v>
+        <v>0.4091081838090088</v>
       </c>
     </row>
     <row r="3">
@@ -11762,7 +11762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4293638727739436</v>
+        <v>0.4293638923316543</v>
       </c>
     </row>
   </sheetData>
@@ -11776,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12010,6 +12010,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12017,223 +12237,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
     <row r="3">
@@ -12242,223 +12510,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
   </sheetData>
@@ -12543,16 +12859,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H2" t="n">
-        <v>2.663752377903829e-08</v>
+        <v>7.569030033893756e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12577,13 +12893,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H3" t="n">
-        <v>3.040053015397282e-08</v>
+        <v>6.121972738344565e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
